--- a/technology_technical_economic_parameters.xlsx
+++ b/technology_technical_economic_parameters.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/caneta_cardiff_ac_uk/Documents/04 - Projects/18 - ABM/01 - Code/ABM code - Dec 2021/Code_WH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="701" documentId="11_EC9B91DDB8EEBBF87EB0692D678B75A84151B5BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE8D5886-14D3-4DB4-BFAB-847E45B1426B}"/>
+  <xr:revisionPtr revIDLastSave="822" documentId="11_EC9B91DDB8EEBBF87EB0692D678B75A84151B5BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D515AD47-C8BC-4C57-BC52-23EDF84432AF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7545" yWindow="8730" windowWidth="21600" windowHeight="9015" tabRatio="464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3705" yWindow="7020" windowWidth="21600" windowHeight="9015" tabRatio="464" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic_parameters" sheetId="10" r:id="rId1"/>
     <sheet name="technical_parameters" sheetId="16" r:id="rId2"/>
-    <sheet name="Peak_demand_data" sheetId="15" state="hidden" r:id="rId3"/>
-    <sheet name="workbook_parameters" sheetId="3" r:id="rId4"/>
-    <sheet name="Technology" sheetId="1" state="hidden" r:id="rId5"/>
+    <sheet name="Bus constraints" sheetId="17" r:id="rId3"/>
+    <sheet name="Peak_demand_data" sheetId="15" state="hidden" r:id="rId4"/>
+    <sheet name="workbook_parameters" sheetId="3" r:id="rId5"/>
+    <sheet name="Technology" sheetId="1" state="hidden" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="cop_large_hp">workbook_parameters!#REF!</definedName>
@@ -61,7 +62,7 @@
     <author>tc={AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="95">
   <si>
     <t>Scale</t>
   </si>
@@ -268,9 +269,6 @@
     <t>Renewable_Flag</t>
   </si>
   <si>
-    <t>CFD_Flag</t>
-  </si>
-  <si>
     <t>Capacity_Market_Flag</t>
   </si>
   <si>
@@ -331,12 +329,6 @@
     <t>Capacity_Factor</t>
   </si>
   <si>
-    <t>GBMaxBuildRate</t>
-  </si>
-  <si>
-    <t>MaxBuildRate</t>
-  </si>
-  <si>
     <t>GHG_Emissions_kgCO2/kWh</t>
   </si>
   <si>
@@ -356,6 +348,21 @@
   </si>
   <si>
     <t>Hydro/2018_GB_Hydro_MW.txt</t>
+  </si>
+  <si>
+    <t>GBMaxBuildRate_kW</t>
+  </si>
+  <si>
+    <t>Busbars</t>
+  </si>
+  <si>
+    <t>CfD_eligible</t>
+  </si>
+  <si>
+    <t>CfD_Flag</t>
+  </si>
+  <si>
+    <t>Typical_Capacity_kW</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1026,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1411,7 +1418,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M1" dT="2022-01-12T12:32:53.44" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
+  <threadedComment ref="N1" dT="2022-01-12T12:32:53.44" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
     <text>(used as a key to get the wholesale price of the fuel for each technology)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1424,10 +1431,10 @@
   </sheetPr>
   <dimension ref="A1:BC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1469,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>49</v>
@@ -1602,7 +1609,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>44</v>
@@ -1769,7 +1776,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>46</v>
@@ -1908,7 +1915,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>47</v>
@@ -2047,7 +2054,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>44</v>
@@ -2186,7 +2193,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>46</v>
@@ -2325,7 +2332,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>47</v>
@@ -2464,7 +2471,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>44</v>
@@ -2603,7 +2610,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>46</v>
@@ -2742,7 +2749,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>47</v>
@@ -2881,7 +2888,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>44</v>
@@ -3020,7 +3027,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>46</v>
@@ -3159,7 +3166,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
@@ -3298,7 +3305,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>44</v>
@@ -3437,7 +3444,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>46</v>
@@ -3576,7 +3583,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>47</v>
@@ -3715,7 +3722,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>44</v>
@@ -3854,7 +3861,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>46</v>
@@ -3993,7 +4000,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>47</v>
@@ -4132,7 +4139,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>44</v>
@@ -4271,7 +4278,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>46</v>
@@ -4408,7 +4415,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>47</v>
@@ -4545,7 +4552,7 @@
         <v>61</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>44</v>
@@ -4682,7 +4689,7 @@
         <v>61</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>46</v>
@@ -4819,7 +4826,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>47</v>
@@ -4956,7 +4963,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>44</v>
@@ -5093,7 +5100,7 @@
         <v>60</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>46</v>
@@ -5230,7 +5237,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>47</v>
@@ -5367,7 +5374,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>44</v>
@@ -5504,7 +5511,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -5641,7 +5648,7 @@
         <v>58</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>47</v>
@@ -5778,7 +5785,7 @@
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>44</v>
@@ -5915,7 +5922,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>46</v>
@@ -6052,7 +6059,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>47</v>
@@ -6186,10 +6193,10 @@
     </row>
     <row r="35" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>44</v>
@@ -6353,10 +6360,10 @@
     </row>
     <row r="36" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>46</v>
@@ -6492,10 +6499,10 @@
     </row>
     <row r="37" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>47</v>
@@ -6638,11 +6645,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B9EF98-BE57-4B2E-A22F-A59E6D68BD28}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6651,82 +6658,90 @@
     <col min="2" max="3" width="36.5703125" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>88</v>
-      </c>
       <c r="N1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
         <v>80</v>
-      </c>
-      <c r="O1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" t="s">
-        <v>83</v>
       </c>
       <c r="Q1" t="s">
         <v>82</v>
       </c>
       <c r="R1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="8">
         <v>25</v>
@@ -6747,48 +6762,51 @@
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
         <v>5</v>
       </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.85</v>
       </c>
-      <c r="R2" s="22">
+      <c r="S2" s="23">
         <v>2000000</v>
       </c>
-      <c r="S2" s="22">
+      <c r="T2" s="23">
         <v>350000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="8">
         <v>25</v>
@@ -6809,48 +6827,51 @@
         <v>0</v>
       </c>
       <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <v>3</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
       <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
         <v>6</v>
       </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
         <v>0.19</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.92</v>
       </c>
-      <c r="R3" s="22">
+      <c r="S3" s="23">
         <v>1000000</v>
       </c>
-      <c r="S3" s="22">
+      <c r="T3" s="23">
         <v>500000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="8">
         <v>25</v>
@@ -6877,42 +6898,45 @@
         <v>0</v>
       </c>
       <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
         <v>7</v>
       </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>54</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
       </c>
       <c r="O4">
         <v>6</v>
       </c>
       <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
         <v>0.17</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.88</v>
       </c>
-      <c r="R4" s="22">
+      <c r="S4" s="23">
         <v>2000000</v>
       </c>
-      <c r="S4" s="22">
+      <c r="T4" s="23">
         <v>100000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8">
         <v>60</v>
@@ -6924,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -6933,48 +6957,51 @@
         <v>0</v>
       </c>
       <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
         <v>2</v>
       </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
       <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
         <v>2</v>
       </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5">
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5">
         <v>8</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>5</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.77400000000000002</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.81</v>
       </c>
-      <c r="R5" s="22">
+      <c r="S5" s="23">
         <v>1000000</v>
       </c>
-      <c r="S5" s="22">
+      <c r="T5" s="23">
         <v>1000000</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="8">
         <v>22</v>
@@ -6986,60 +7013,63 @@
         <v>1</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
         <v>8700</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>1341.2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>5</v>
       </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
       <c r="K6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.48</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.24</v>
       </c>
-      <c r="R6" s="22">
+      <c r="S6" s="23">
         <v>1000000</v>
       </c>
-      <c r="S6" s="22">
+      <c r="T6" s="23">
         <v>56000</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="8">
         <v>24</v>
@@ -7051,60 +7081,63 @@
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
         <v>12100</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>5564</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
       <c r="K7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7">
         <v>4</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.32</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.17</v>
       </c>
-      <c r="R7" s="22">
+      <c r="S7" s="23">
         <v>550000</v>
       </c>
-      <c r="S7" s="22">
+      <c r="T7" s="23">
         <v>30600</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="8">
         <v>25</v>
@@ -7116,60 +7149,63 @@
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
         <v>13000</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>111</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
       <c r="J8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>0.11</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.12</v>
       </c>
-      <c r="R8" s="22">
+      <c r="S8" s="23">
         <v>1500000</v>
       </c>
-      <c r="S8" s="22">
+      <c r="T8" s="23">
         <v>100000</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="8">
         <v>41</v>
@@ -7181,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -7190,51 +7226,54 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
         <v>2</v>
       </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
       <c r="K9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
       </c>
       <c r="O9">
         <v>2</v>
       </c>
       <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
         <v>0.35</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.84</v>
       </c>
-      <c r="R9" s="22">
+      <c r="S9" s="23">
         <v>60000</v>
       </c>
-      <c r="S9" s="22">
+      <c r="T9" s="23">
         <v>10000</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="8">
         <v>25</v>
@@ -7255,48 +7294,51 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>5</v>
       </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
       <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
         <v>3</v>
       </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10">
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.84</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.88</v>
       </c>
-      <c r="R10" s="22">
+      <c r="S10" s="23">
         <v>500000</v>
       </c>
-      <c r="S10" s="22">
+      <c r="T10" s="23">
         <v>14000</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="8">
         <v>25</v>
@@ -7308,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -7317,48 +7359,51 @@
         <v>0</v>
       </c>
       <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
         <v>4</v>
       </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
       <c r="K11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11">
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11">
         <v>2</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.45</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.88</v>
       </c>
-      <c r="R11" s="22">
+      <c r="S11" s="23">
         <v>500000</v>
       </c>
-      <c r="S11" s="22">
+      <c r="T11" s="23">
         <v>500000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-0.29499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8">
         <v>25</v>
@@ -7370,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -7379,48 +7424,51 @@
         <v>0</v>
       </c>
       <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <v>6</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
       <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
         <v>4</v>
       </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>3</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.45300000000000001</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.85</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.5</v>
       </c>
-      <c r="S12">
+      <c r="T12" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="8">
         <f>C2</f>
@@ -7431,21 +7479,23 @@
         <v>0</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -7453,6 +7503,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7461,6 +7512,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898708BB-497B-47A9-8A42-DFB40CA3BBD6}">
+  <dimension ref="A1:AB31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="31" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -7529,7 +8750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -7559,7 +8780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -7897,6 +9118,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F5CD42354AAC441BBEBC0DB60FF2E5E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea4030731fbb82b60f08fc005274800f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77004af6-74ae-4ef6-bd6c-a07f36984bb1" xmlns:ns3="fc548c4c-0127-4895-9309-6e27078b8b5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14d4a3203feaba80961c8c11a30ae70b" ns2:_="" ns3:_="">
     <xsd:import namespace="77004af6-74ae-4ef6-bd6c-a07f36984bb1"/>
@@ -8101,15 +9331,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C816199B-3615-49AE-8787-402FADC64DE2}">
   <ds:schemaRefs>
@@ -8120,6 +9341,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE276612-2441-44A6-B645-D8B674E952AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2448F5-A512-4284-A3B0-EE93AC3A811B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8138,14 +9367,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE276612-2441-44A6-B645-D8B674E952AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{bdb74b30-9568-4856-bdbf-06759778fcbc}" enabled="0" method="" siteId="{bdb74b30-9568-4856-bdbf-06759778fcbc}" removed="1"/>

--- a/technology_technical_economic_parameters.xlsx
+++ b/technology_technical_economic_parameters.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/caneta_cardiff_ac_uk/Documents/04 - Projects/18 - ABM/01 - Code/ABM code - Dec 2021/Code_WH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="822" documentId="11_EC9B91DDB8EEBBF87EB0692D678B75A84151B5BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D515AD47-C8BC-4C57-BC52-23EDF84432AF}"/>
+  <xr:revisionPtr revIDLastSave="916" documentId="11_EC9B91DDB8EEBBF87EB0692D678B75A84151B5BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEECC79-1A5F-4D7A-9F5C-9DBF93D3E6F4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3705" yWindow="7020" windowWidth="21600" windowHeight="9015" tabRatio="464" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="464" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic_parameters" sheetId="10" r:id="rId1"/>
     <sheet name="technical_parameters" sheetId="16" r:id="rId2"/>
     <sheet name="Bus constraints" sheetId="17" r:id="rId3"/>
-    <sheet name="Peak_demand_data" sheetId="15" state="hidden" r:id="rId4"/>
-    <sheet name="workbook_parameters" sheetId="3" r:id="rId5"/>
-    <sheet name="Technology" sheetId="1" state="hidden" r:id="rId6"/>
+    <sheet name="technologies_families" sheetId="18" r:id="rId4"/>
+    <sheet name="Peak_demand_data" sheetId="15" state="hidden" r:id="rId5"/>
+    <sheet name="workbook_parameters" sheetId="3" r:id="rId6"/>
+    <sheet name="Technology" sheetId="1" state="hidden" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="cop_large_hp">workbook_parameters!#REF!</definedName>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="96">
   <si>
     <t>Scale</t>
   </si>
@@ -269,9 +270,6 @@
     <t>Renewable_Flag</t>
   </si>
   <si>
-    <t>Capacity_Market_Flag</t>
-  </si>
-  <si>
     <t>DER_Capacity_Installed_2018_MW</t>
   </si>
   <si>
@@ -364,19 +362,24 @@
   <si>
     <t>Typical_Capacity_kW</t>
   </si>
+  <si>
+    <t>Org_GBMaxBuildRate_kW</t>
+  </si>
+  <si>
+    <t>Capacity_Market_eligible</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,19 +571,13 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,13 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +978,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1006,32 +997,35 @@
     <xf numFmtId="166" fontId="3" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="33" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="27" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="33" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="34" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="46" builtinId="30" customBuiltin="1"/>
@@ -1429,12 +1423,12 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:BC37"/>
+  <dimension ref="A1:BM37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="S44" sqref="S44"/>
+      <selection pane="topRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,152 +1458,209 @@
     <col min="46" max="55" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="14">
         <v>2010</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="14">
         <v>2011</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="14">
         <v>2012</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="14">
         <v>2013</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="14">
         <v>2014</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="14">
         <v>2015</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="14">
         <v>2016</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="14">
         <v>2017</v>
       </c>
-      <c r="M1" s="16">
+      <c r="M1" s="14">
         <v>2018</v>
       </c>
-      <c r="N1" s="16">
+      <c r="N1" s="14">
         <v>2019</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="14">
         <v>2020</v>
       </c>
-      <c r="P1" s="16">
+      <c r="P1" s="14">
         <v>2021</v>
       </c>
-      <c r="Q1" s="16">
+      <c r="Q1" s="14">
         <v>2022</v>
       </c>
-      <c r="R1" s="16">
+      <c r="R1" s="14">
         <v>2023</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1" s="14">
         <v>2024</v>
       </c>
-      <c r="T1" s="16">
+      <c r="T1" s="14">
         <v>2025</v>
       </c>
-      <c r="U1" s="16">
+      <c r="U1" s="14">
         <v>2026</v>
       </c>
-      <c r="V1" s="16">
+      <c r="V1" s="14">
         <v>2027</v>
       </c>
-      <c r="W1" s="16">
+      <c r="W1" s="14">
         <v>2028</v>
       </c>
-      <c r="X1" s="16">
+      <c r="X1" s="14">
         <v>2029</v>
       </c>
-      <c r="Y1" s="16">
+      <c r="Y1" s="14">
         <v>2030</v>
       </c>
-      <c r="Z1" s="16">
+      <c r="Z1" s="14">
         <v>2031</v>
       </c>
-      <c r="AA1" s="16">
+      <c r="AA1" s="14">
         <v>2032</v>
       </c>
-      <c r="AB1" s="16">
+      <c r="AB1" s="14">
         <v>2033</v>
       </c>
-      <c r="AC1" s="16">
+      <c r="AC1" s="14">
         <v>2034</v>
       </c>
-      <c r="AD1" s="16">
+      <c r="AD1" s="14">
         <v>2035</v>
       </c>
-      <c r="AE1" s="16">
+      <c r="AE1" s="14">
         <v>2036</v>
       </c>
-      <c r="AF1" s="16">
+      <c r="AF1" s="14">
         <v>2037</v>
       </c>
-      <c r="AG1" s="16">
+      <c r="AG1" s="14">
         <v>2038</v>
       </c>
-      <c r="AH1" s="16">
+      <c r="AH1" s="14">
         <v>2039</v>
       </c>
-      <c r="AI1" s="16">
+      <c r="AI1" s="14">
         <v>2040</v>
       </c>
-      <c r="AJ1" s="16">
+      <c r="AJ1" s="14">
         <v>2041</v>
       </c>
-      <c r="AK1" s="16">
+      <c r="AK1" s="14">
         <v>2042</v>
       </c>
-      <c r="AL1" s="16">
+      <c r="AL1" s="14">
         <v>2043</v>
       </c>
-      <c r="AM1" s="16">
+      <c r="AM1" s="14">
         <v>2044</v>
       </c>
-      <c r="AN1" s="16">
+      <c r="AN1" s="14">
         <v>2045</v>
       </c>
-      <c r="AO1" s="16">
+      <c r="AO1" s="14">
         <v>2046</v>
       </c>
-      <c r="AP1" s="16">
+      <c r="AP1" s="14">
         <v>2047</v>
       </c>
-      <c r="AQ1" s="16">
+      <c r="AQ1" s="14">
         <v>2048</v>
       </c>
-      <c r="AR1" s="16">
+      <c r="AR1" s="14">
         <v>2049</v>
       </c>
-      <c r="AS1" s="16">
+      <c r="AS1" s="14">
         <v>2050</v>
       </c>
-      <c r="AT1" s="17" t="s">
-        <v>9</v>
+      <c r="AT1" s="21">
+        <v>2051</v>
+      </c>
+      <c r="AU1" s="21">
+        <v>2052</v>
+      </c>
+      <c r="AV1" s="21">
+        <v>2053</v>
+      </c>
+      <c r="AW1" s="21">
+        <v>2054</v>
+      </c>
+      <c r="AX1" s="21">
+        <v>2055</v>
+      </c>
+      <c r="AY1" s="21">
+        <v>2056</v>
+      </c>
+      <c r="AZ1" s="21">
+        <v>2057</v>
+      </c>
+      <c r="BA1" s="21">
+        <v>2058</v>
+      </c>
+      <c r="BB1" s="21">
+        <v>2059</v>
+      </c>
+      <c r="BC1" s="21">
+        <v>2060</v>
+      </c>
+      <c r="BD1" s="21">
+        <v>2061</v>
+      </c>
+      <c r="BE1" s="21">
+        <v>2062</v>
+      </c>
+      <c r="BF1" s="21">
+        <v>2063</v>
+      </c>
+      <c r="BG1" s="21">
+        <v>2064</v>
+      </c>
+      <c r="BH1" s="21">
+        <v>2065</v>
+      </c>
+      <c r="BI1" s="21">
+        <v>2066</v>
+      </c>
+      <c r="BJ1" s="21">
+        <v>2067</v>
+      </c>
+      <c r="BK1" s="21">
+        <v>2068</v>
+      </c>
+      <c r="BL1" s="21">
+        <v>2069</v>
+      </c>
+      <c r="BM1" s="21">
+        <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>44</v>
@@ -1617,166 +1668,196 @@
       <c r="D2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="16">
         <v>497812.59248087305</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="16">
         <v>494865.12091303011</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="16">
         <v>484154.50870762538</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="16">
         <v>488968.70769015868</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="16">
         <v>493806.07478761696</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="16">
         <v>498666.69500000001</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="X2" s="20">
+      <c r="X2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AD2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AE2" s="20">
+      <c r="AE2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AF2" s="20">
+      <c r="AF2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AG2" s="20">
+      <c r="AG2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AH2" s="20">
+      <c r="AH2" s="16">
         <v>501499.99999999983</v>
       </c>
-      <c r="AI2" s="20">
+      <c r="AI2" s="16">
         <v>501499.99999999983</v>
       </c>
-      <c r="AJ2" s="20">
+      <c r="AJ2" s="16">
         <v>501499.99999999983</v>
       </c>
-      <c r="AK2" s="20">
+      <c r="AK2" s="16">
         <v>501499.99999999983</v>
       </c>
-      <c r="AL2" s="20">
+      <c r="AL2" s="16">
         <v>501499.99999999983</v>
       </c>
-      <c r="AM2" s="20">
+      <c r="AM2" s="16">
         <v>501499.99999999983</v>
       </c>
-      <c r="AN2" s="20">
+      <c r="AN2" s="16">
         <v>501499.99999999983</v>
       </c>
-      <c r="AO2" s="20">
+      <c r="AO2" s="16">
         <v>501499.99999999983</v>
       </c>
-      <c r="AP2" s="20">
+      <c r="AP2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AQ2" s="20">
+      <c r="AQ2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AR2" s="20">
+      <c r="AR2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AS2" s="20">
+      <c r="AS2" s="16">
         <v>501499.99999999994</v>
       </c>
-      <c r="AT2" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="AU2" s="18">
-        <v>501.5</v>
-      </c>
-      <c r="AV2" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="AW2" s="18">
-        <v>501.5</v>
-      </c>
-      <c r="AX2" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="AY2" s="18">
-        <v>501.5</v>
-      </c>
-      <c r="AZ2" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="BA2" s="18">
-        <v>501.5</v>
-      </c>
-      <c r="BB2" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="BC2" s="18">
-        <v>501.5</v>
+      <c r="AT2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="AU2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="AV2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="AW2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="AX2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="AY2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="AZ2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BA2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BB2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BC2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BD2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BE2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BF2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BG2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BH2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BI2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BJ2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BK2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BL2" s="22">
+        <v>501500</v>
+      </c>
+      <c r="BM2" s="22">
+        <v>501500</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>46</v>
@@ -1907,15 +1988,73 @@
       <c r="AS3" s="11">
         <v>22542</v>
       </c>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
+      <c r="AT3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="AU3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="AV3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="AW3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="AX3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="AY3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="AZ3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BA3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BB3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BC3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BD3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BE3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BF3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BG3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BH3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BI3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BJ3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BK3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BL3" s="23">
+        <v>22542</v>
+      </c>
+      <c r="BM3" s="23">
+        <v>22542</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>47</v>
@@ -1923,138 +2062,196 @@
       <c r="D4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <v>2.114685378011226</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>2.0569568978643682</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="12">
         <v>2.0654712652429121</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <v>2.0739856326214561</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AF4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AG4" s="13">
+      <c r="AG4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AH4" s="13">
+      <c r="AH4" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AI4" s="13">
+      <c r="AI4" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AJ4" s="13">
+      <c r="AJ4" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AK4" s="13">
+      <c r="AK4" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AL4" s="13">
+      <c r="AL4" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AM4" s="13">
+      <c r="AM4" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AN4" s="13">
+      <c r="AN4" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AO4" s="13">
+      <c r="AO4" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AP4" s="13">
+      <c r="AP4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AQ4" s="13">
+      <c r="AQ4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AR4" s="13">
+      <c r="AR4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AS4" s="13">
+      <c r="AS4" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AU4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AV4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AW4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AX4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AY4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AZ4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BA4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BB4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BC4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BD4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BE4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BF4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BG4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BH4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BI4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BJ4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BK4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BL4" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BM4" s="24">
+        <v>2.0825</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>44</v>
@@ -2062,138 +2259,196 @@
       <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="16">
         <v>419210.60419441934</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="16">
         <v>417182.80090445437</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="16">
         <v>408592.8267452608</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="16">
         <v>413094.25304858241</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="16">
         <v>417618.84746682883</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="16">
         <v>422166.69500000001</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="16">
         <v>425000</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="16">
         <v>425000</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="16">
         <v>425000</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="16">
         <v>425000</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AB5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AC5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AD5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="AE5" s="20">
+      <c r="AE5" s="16">
         <v>425000</v>
       </c>
-      <c r="AF5" s="20">
+      <c r="AF5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AG5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AH5" s="16">
         <v>424999.99999999988</v>
       </c>
-      <c r="AI5" s="20">
+      <c r="AI5" s="16">
         <v>424999.99999999988</v>
       </c>
-      <c r="AJ5" s="20">
+      <c r="AJ5" s="16">
         <v>424999.99999999988</v>
       </c>
-      <c r="AK5" s="20">
+      <c r="AK5" s="16">
         <v>424999.99999999988</v>
       </c>
-      <c r="AL5" s="20">
+      <c r="AL5" s="16">
         <v>424999.99999999988</v>
       </c>
-      <c r="AM5" s="20">
+      <c r="AM5" s="16">
         <v>424999.99999999988</v>
       </c>
-      <c r="AN5" s="20">
+      <c r="AN5" s="16">
         <v>424999.99999999988</v>
       </c>
-      <c r="AO5" s="20">
+      <c r="AO5" s="16">
         <v>424999.99999999988</v>
       </c>
-      <c r="AP5" s="20">
+      <c r="AP5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="AQ5" s="20">
+      <c r="AQ5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="AR5" s="20">
+      <c r="AR5" s="16">
         <v>424999.99999999994</v>
       </c>
-      <c r="AS5" s="20">
+      <c r="AS5" s="16">
         <v>425000</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="AT5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="AU5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="AV5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="AW5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="AX5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="AY5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="AZ5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BA5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BB5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BC5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BD5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BE5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BF5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BG5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BH5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BI5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BJ5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BK5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BL5" s="22">
+        <v>425000</v>
+      </c>
+      <c r="BM5" s="22">
+        <v>425000</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>46</v>
@@ -2324,15 +2579,73 @@
       <c r="AS6" s="11">
         <v>15648.5</v>
       </c>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="AT6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="AU6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="AV6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="AW6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="AX6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="AY6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="AZ6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BA6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BB6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BC6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BD6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BE6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BF6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BG6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BH6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BI6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BJ6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BK6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BL6" s="23">
+        <v>15648.5</v>
+      </c>
+      <c r="BM6" s="23">
+        <v>15648.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>47</v>
@@ -2340,138 +2653,196 @@
       <c r="D7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>2.114685378011226</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <v>2.0569568978643682</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="12">
         <v>2.0654712652429121</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <v>2.0739856326214561</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AG7" s="13">
+      <c r="AG7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AH7" s="13">
+      <c r="AH7" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AI7" s="13">
+      <c r="AI7" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AJ7" s="13">
+      <c r="AJ7" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AK7" s="13">
+      <c r="AK7" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AL7" s="13">
+      <c r="AL7" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AM7" s="13">
+      <c r="AM7" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AN7" s="13">
+      <c r="AN7" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AO7" s="13">
+      <c r="AO7" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AP7" s="13">
+      <c r="AP7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AQ7" s="13">
+      <c r="AQ7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AR7" s="13">
+      <c r="AR7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AS7" s="13">
+      <c r="AS7" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="AT7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AU7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AV7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AW7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AX7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AY7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AZ7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BA7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BB7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BC7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BD7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BE7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BF7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BG7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BH7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BI7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BJ7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BK7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BL7" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BM7" s="24">
+        <v>2.0825</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>44</v>
@@ -2479,138 +2850,196 @@
       <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="16">
         <v>1624441.0912533752</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="16">
         <v>1605434.6135105635</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="16">
         <v>1561608.0938888672</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="16">
         <v>1568072.0625925781</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="16">
         <v>1574536.0312962891</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="16">
         <v>1581000</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="16">
         <v>1581000</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="Y8" s="16">
         <v>1581000</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="Z8" s="16">
         <v>1581000</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="16">
         <v>1581000</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AC8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AD8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="AE8" s="16">
         <v>1581000</v>
       </c>
-      <c r="AF8" s="20">
+      <c r="AF8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="AG8" s="20">
+      <c r="AG8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AH8" s="16">
         <v>1580999.9999999995</v>
       </c>
-      <c r="AI8" s="20">
+      <c r="AI8" s="16">
         <v>1580999.9999999995</v>
       </c>
-      <c r="AJ8" s="20">
+      <c r="AJ8" s="16">
         <v>1580999.9999999995</v>
       </c>
-      <c r="AK8" s="20">
+      <c r="AK8" s="16">
         <v>1580999.9999999995</v>
       </c>
-      <c r="AL8" s="20">
+      <c r="AL8" s="16">
         <v>1580999.9999999995</v>
       </c>
-      <c r="AM8" s="20">
+      <c r="AM8" s="16">
         <v>1580999.9999999995</v>
       </c>
-      <c r="AN8" s="20">
+      <c r="AN8" s="16">
         <v>1580999.9999999995</v>
       </c>
-      <c r="AO8" s="20">
+      <c r="AO8" s="16">
         <v>1580999.9999999995</v>
       </c>
-      <c r="AP8" s="20">
+      <c r="AP8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="AQ8" s="20">
+      <c r="AQ8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="AR8" s="20">
+      <c r="AR8" s="16">
         <v>1580999.9999999998</v>
       </c>
-      <c r="AS8" s="20">
+      <c r="AS8" s="16">
         <v>1581000</v>
       </c>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
+      <c r="AT8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="AU8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="AV8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="AW8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="AX8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="AY8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="AZ8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BA8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BB8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BC8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BD8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BE8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BF8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BG8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BH8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BI8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BJ8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BK8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BL8" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="BM8" s="22">
+        <v>1581000</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>46</v>
@@ -2741,15 +3170,73 @@
       <c r="AS9" s="11">
         <v>54060.000000000007</v>
       </c>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12"/>
+      <c r="AT9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="AU9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="AV9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="AW9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="AX9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="AY9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="AZ9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BA9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BB9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BC9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BD9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BE9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BF9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BG9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BH9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BI9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BJ9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BK9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BL9" s="23">
+        <v>54060</v>
+      </c>
+      <c r="BM9" s="23">
+        <v>54060</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>47</v>
@@ -2757,138 +3244,196 @@
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13">
-        <v>0</v>
-      </c>
-      <c r="S10" s="13">
-        <v>0</v>
-      </c>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13">
-        <v>0</v>
-      </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-      <c r="W10" s="13">
-        <v>0</v>
-      </c>
-      <c r="X10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="12"/>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="24">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>44</v>
@@ -2896,138 +3441,196 @@
       <c r="D11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="16">
         <v>1794745.399207358</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="16">
         <v>1707284.7664106961</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="16">
         <v>1597709.7863819969</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="16">
         <v>1544466.6767040875</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="16">
         <v>1494962.7049834658</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="16">
         <v>1447550</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="16">
         <v>1395699.9999999998</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="16">
         <v>1344699.9999999998</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="16">
         <v>1296249.9999999998</v>
       </c>
-      <c r="X11" s="20">
+      <c r="X11" s="16">
         <v>1266500</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y11" s="16">
         <v>1236750</v>
       </c>
-      <c r="Z11" s="20">
+      <c r="Z11" s="16">
         <v>1207849.9999999998</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA11" s="16">
         <v>1180649.9999999998</v>
       </c>
-      <c r="AB11" s="20">
+      <c r="AB11" s="16">
         <v>1153449.9999999998</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AC11" s="16">
         <v>1135600</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AD11" s="16">
         <v>1118599.9999999998</v>
       </c>
-      <c r="AE11" s="20">
+      <c r="AE11" s="16">
         <v>1102450.0000000002</v>
       </c>
-      <c r="AF11" s="20">
+      <c r="AF11" s="16">
         <v>1085449.9999999998</v>
       </c>
-      <c r="AG11" s="20">
+      <c r="AG11" s="16">
         <v>1069299.9999999998</v>
       </c>
-      <c r="AH11" s="20">
+      <c r="AH11" s="16">
         <v>1053149.9999999995</v>
       </c>
-      <c r="AI11" s="20">
+      <c r="AI11" s="16">
         <v>1036999.9999999997</v>
       </c>
-      <c r="AJ11" s="20">
+      <c r="AJ11" s="16">
         <v>1027649.9999999998</v>
       </c>
-      <c r="AK11" s="20">
+      <c r="AK11" s="16">
         <v>1018299.9999999998</v>
       </c>
-      <c r="AL11" s="20">
+      <c r="AL11" s="16">
         <v>1008949.9999999998</v>
       </c>
-      <c r="AM11" s="20">
+      <c r="AM11" s="16">
         <v>1000449.9999999997</v>
       </c>
-      <c r="AN11" s="20">
+      <c r="AN11" s="16">
         <v>991099.99999999965</v>
       </c>
-      <c r="AO11" s="20">
+      <c r="AO11" s="16">
         <v>982599.99999999965</v>
       </c>
-      <c r="AP11" s="20">
+      <c r="AP11" s="16">
         <v>973249.99999999988</v>
       </c>
-      <c r="AQ11" s="20">
+      <c r="AQ11" s="16">
         <v>964749.99999999988</v>
       </c>
-      <c r="AR11" s="20">
+      <c r="AR11" s="16">
         <v>956249.99999999988</v>
       </c>
-      <c r="AS11" s="20">
+      <c r="AS11" s="16">
         <v>946900</v>
       </c>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AT11" s="22">
+        <v>938116.66666666698</v>
+      </c>
+      <c r="AU11" s="22">
+        <v>929191.66666666698</v>
+      </c>
+      <c r="AV11" s="22">
+        <v>920266.66666666698</v>
+      </c>
+      <c r="AW11" s="22">
+        <v>911341.66666666698</v>
+      </c>
+      <c r="AX11" s="22">
+        <v>902416.66666666698</v>
+      </c>
+      <c r="AY11" s="22">
+        <v>893491.66666666698</v>
+      </c>
+      <c r="AZ11" s="22">
+        <v>884566.66666666698</v>
+      </c>
+      <c r="BA11" s="22">
+        <v>875641.66666666698</v>
+      </c>
+      <c r="BB11" s="22">
+        <v>866716.66666666698</v>
+      </c>
+      <c r="BC11" s="22">
+        <v>857791.66666666802</v>
+      </c>
+      <c r="BD11" s="22">
+        <v>848866.66666666802</v>
+      </c>
+      <c r="BE11" s="22">
+        <v>839941.66666666802</v>
+      </c>
+      <c r="BF11" s="22">
+        <v>831016.66666666802</v>
+      </c>
+      <c r="BG11" s="22">
+        <v>822091.66666666802</v>
+      </c>
+      <c r="BH11" s="22">
+        <v>813166.66666666802</v>
+      </c>
+      <c r="BI11" s="22">
+        <v>804241.66666666802</v>
+      </c>
+      <c r="BJ11" s="22">
+        <v>795316.66666666802</v>
+      </c>
+      <c r="BK11" s="22">
+        <v>786391.66666666802</v>
+      </c>
+      <c r="BL11" s="22">
+        <v>777466.66666666802</v>
+      </c>
+      <c r="BM11" s="22">
+        <v>768541.66666666802</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>46</v>
@@ -3158,15 +3761,73 @@
       <c r="AS12" s="11">
         <v>85612.595000000001</v>
       </c>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AT12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="AU12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="AV12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="AW12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="AX12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="AY12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="AZ12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BA12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BB12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BC12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BD12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BE12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BF12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BG12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BH12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BI12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BJ12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BK12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BL12" s="23">
+        <v>85612.595000000001</v>
+      </c>
+      <c r="BM12" s="23">
+        <v>85612.595000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
@@ -3174,138 +3835,196 @@
       <c r="D13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="13">
-        <v>0</v>
-      </c>
-      <c r="T13" s="13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="13">
-        <v>0</v>
-      </c>
-      <c r="V13" s="13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="13">
-        <v>0</v>
-      </c>
-      <c r="X13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>44</v>
@@ -3313,138 +4032,196 @@
       <c r="D14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="16">
         <v>1004358.7392157965</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="16">
         <v>967576.45255125896</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="16">
         <v>917654.64872071613</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="16">
         <v>898690.76275467116</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="16">
         <v>879539.21318109904</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="16">
         <v>861900</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="16">
         <v>850849.99999999988</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="16">
         <v>839799.99999999988</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="16">
         <v>829599.99999999988</v>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="16">
         <v>819400</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="16">
         <v>809199.99999999988</v>
       </c>
-      <c r="Z14" s="20">
+      <c r="Z14" s="16">
         <v>804950</v>
       </c>
-      <c r="AA14" s="20">
+      <c r="AA14" s="16">
         <v>799850.00000000012</v>
       </c>
-      <c r="AB14" s="20">
+      <c r="AB14" s="16">
         <v>795599.99999999988</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AC14" s="16">
         <v>791349.99999999988</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AD14" s="16">
         <v>787099.99999999988</v>
       </c>
-      <c r="AE14" s="20">
+      <c r="AE14" s="16">
         <v>782850</v>
       </c>
-      <c r="AF14" s="20">
+      <c r="AF14" s="16">
         <v>778600</v>
       </c>
-      <c r="AG14" s="20">
+      <c r="AG14" s="16">
         <v>774349.99999999988</v>
       </c>
-      <c r="AH14" s="20">
+      <c r="AH14" s="16">
         <v>770099.99999999977</v>
       </c>
-      <c r="AI14" s="20">
+      <c r="AI14" s="16">
         <v>765849.99999999977</v>
       </c>
-      <c r="AJ14" s="20">
+      <c r="AJ14" s="16">
         <v>765849.99999999977</v>
       </c>
-      <c r="AK14" s="20">
+      <c r="AK14" s="16">
         <v>765849.99999999977</v>
       </c>
-      <c r="AL14" s="20">
+      <c r="AL14" s="16">
         <v>765849.99999999977</v>
       </c>
-      <c r="AM14" s="20">
+      <c r="AM14" s="16">
         <v>765849.99999999977</v>
       </c>
-      <c r="AN14" s="20">
+      <c r="AN14" s="16">
         <v>765849.99999999977</v>
       </c>
-      <c r="AO14" s="20">
+      <c r="AO14" s="16">
         <v>765849.99999999977</v>
       </c>
-      <c r="AP14" s="20">
+      <c r="AP14" s="16">
         <v>765849.99999999988</v>
       </c>
-      <c r="AQ14" s="20">
+      <c r="AQ14" s="16">
         <v>765849.99999999988</v>
       </c>
-      <c r="AR14" s="20">
+      <c r="AR14" s="16">
         <v>765849.99999999988</v>
       </c>
-      <c r="AS14" s="20">
+      <c r="AS14" s="16">
         <v>765850</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AT14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="AU14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="AV14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="AW14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="AX14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="AY14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="AZ14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BA14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BB14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BC14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BD14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BE14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BF14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BG14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BH14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BI14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BJ14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BK14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BL14" s="22">
+        <v>765850</v>
+      </c>
+      <c r="BM14" s="22">
+        <v>765850</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>46</v>
@@ -3575,15 +4352,73 @@
       <c r="AS15" s="11">
         <v>31075.821499999998</v>
       </c>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AT15" s="23">
+        <v>31038.577333333302</v>
+      </c>
+      <c r="AU15" s="23">
+        <v>31001.338833333299</v>
+      </c>
+      <c r="AV15" s="23">
+        <v>30964.100333333299</v>
+      </c>
+      <c r="AW15" s="23">
+        <v>30926.8618333333</v>
+      </c>
+      <c r="AX15" s="23">
+        <v>30889.6233333333</v>
+      </c>
+      <c r="AY15" s="23">
+        <v>30852.384833333301</v>
+      </c>
+      <c r="AZ15" s="23">
+        <v>30815.146333333301</v>
+      </c>
+      <c r="BA15" s="23">
+        <v>30777.907833333298</v>
+      </c>
+      <c r="BB15" s="23">
+        <v>30740.669333333299</v>
+      </c>
+      <c r="BC15" s="23">
+        <v>30703.430833333299</v>
+      </c>
+      <c r="BD15" s="23">
+        <v>30666.1923333333</v>
+      </c>
+      <c r="BE15" s="23">
+        <v>30628.9538333333</v>
+      </c>
+      <c r="BF15" s="23">
+        <v>30591.715333333301</v>
+      </c>
+      <c r="BG15" s="23">
+        <v>30554.476833333301</v>
+      </c>
+      <c r="BH15" s="23">
+        <v>30517.238333333298</v>
+      </c>
+      <c r="BI15" s="23">
+        <v>30479.999833333299</v>
+      </c>
+      <c r="BJ15" s="23">
+        <v>30442.761333333299</v>
+      </c>
+      <c r="BK15" s="23">
+        <v>30405.5228333333</v>
+      </c>
+      <c r="BL15" s="23">
+        <v>30368.2843333333</v>
+      </c>
+      <c r="BM15" s="23">
+        <v>30331.045833333301</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>47</v>
@@ -3591,138 +4426,196 @@
       <c r="D16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-      <c r="L16" s="13">
-        <v>0</v>
-      </c>
-      <c r="M16" s="13">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13">
-        <v>0</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13">
-        <v>0</v>
-      </c>
-      <c r="S16" s="13">
-        <v>0</v>
-      </c>
-      <c r="T16" s="13">
-        <v>0</v>
-      </c>
-      <c r="U16" s="13">
-        <v>0</v>
-      </c>
-      <c r="V16" s="13">
-        <v>0</v>
-      </c>
-      <c r="W16" s="13">
-        <v>0</v>
-      </c>
-      <c r="X16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <v>0</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="24">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>44</v>
@@ -3730,138 +4623,196 @@
       <c r="D17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="16">
         <v>524013.25524302421</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="16">
         <v>496415.91896146792</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="16">
         <v>464167.01655236509</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="16">
         <v>447693.00436514121</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="16">
         <v>436637.46502291714</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="16">
         <v>428187.5</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="16">
         <v>418199.99999999988</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="16">
         <v>408475.99999999994</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="16">
         <v>398930.49999999994</v>
       </c>
-      <c r="X17" s="20">
+      <c r="X17" s="16">
         <v>389640</v>
       </c>
-      <c r="Y17" s="20">
+      <c r="Y17" s="16">
         <v>382678.5</v>
       </c>
-      <c r="Z17" s="20">
+      <c r="Z17" s="16">
         <v>375802</v>
       </c>
-      <c r="AA17" s="20">
+      <c r="AA17" s="16">
         <v>369095.5</v>
       </c>
-      <c r="AB17" s="20">
+      <c r="AB17" s="16">
         <v>362473.99999999988</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AC17" s="16">
         <v>355937.49999999994</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AD17" s="16">
         <v>351449.49999999994</v>
       </c>
-      <c r="AE17" s="20">
+      <c r="AE17" s="16">
         <v>347037.99999999994</v>
       </c>
-      <c r="AF17" s="20">
+      <c r="AF17" s="16">
         <v>342711.49999999994</v>
       </c>
-      <c r="AG17" s="20">
+      <c r="AG17" s="16">
         <v>338393.49999999994</v>
       </c>
-      <c r="AH17" s="20">
+      <c r="AH17" s="16">
         <v>334151.99999999994</v>
       </c>
-      <c r="AI17" s="20">
+      <c r="AI17" s="16">
         <v>331686.99999999994</v>
       </c>
-      <c r="AJ17" s="20">
+      <c r="AJ17" s="16">
         <v>329221.99999999988</v>
       </c>
-      <c r="AK17" s="20">
+      <c r="AK17" s="16">
         <v>326833.49999999988</v>
       </c>
-      <c r="AL17" s="20">
+      <c r="AL17" s="16">
         <v>324453.49999999988</v>
       </c>
-      <c r="AM17" s="20">
+      <c r="AM17" s="16">
         <v>322064.99999999988</v>
       </c>
-      <c r="AN17" s="20">
+      <c r="AN17" s="16">
         <v>321435.99999999994</v>
       </c>
-      <c r="AO17" s="20">
+      <c r="AO17" s="16">
         <v>320721.99999999988</v>
       </c>
-      <c r="AP17" s="20">
+      <c r="AP17" s="16">
         <v>320092.99999999994</v>
       </c>
-      <c r="AQ17" s="20">
+      <c r="AQ17" s="16">
         <v>319463.99999999994</v>
       </c>
-      <c r="AR17" s="20">
+      <c r="AR17" s="16">
         <v>318749.99999999994</v>
       </c>
-      <c r="AS17" s="20">
+      <c r="AS17" s="16">
         <v>318750</v>
       </c>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
+      <c r="AT17" s="22">
+        <v>318274</v>
+      </c>
+      <c r="AU17" s="22">
+        <v>317917</v>
+      </c>
+      <c r="AV17" s="22">
+        <v>317560</v>
+      </c>
+      <c r="AW17" s="22">
+        <v>317203</v>
+      </c>
+      <c r="AX17" s="22">
+        <v>316846</v>
+      </c>
+      <c r="AY17" s="22">
+        <v>316489</v>
+      </c>
+      <c r="AZ17" s="22">
+        <v>316132</v>
+      </c>
+      <c r="BA17" s="22">
+        <v>315775</v>
+      </c>
+      <c r="BB17" s="22">
+        <v>315418</v>
+      </c>
+      <c r="BC17" s="22">
+        <v>315061</v>
+      </c>
+      <c r="BD17" s="22">
+        <v>314704</v>
+      </c>
+      <c r="BE17" s="22">
+        <v>314347</v>
+      </c>
+      <c r="BF17" s="22">
+        <v>313990</v>
+      </c>
+      <c r="BG17" s="22">
+        <v>313633</v>
+      </c>
+      <c r="BH17" s="22">
+        <v>313276</v>
+      </c>
+      <c r="BI17" s="22">
+        <v>312919</v>
+      </c>
+      <c r="BJ17" s="22">
+        <v>312562</v>
+      </c>
+      <c r="BK17" s="22">
+        <v>312205</v>
+      </c>
+      <c r="BL17" s="22">
+        <v>311848</v>
+      </c>
+      <c r="BM17" s="22">
+        <v>311491.00000000099</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>46</v>
@@ -3992,15 +4943,73 @@
       <c r="AS18" s="11">
         <v>7123</v>
       </c>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="12"/>
+      <c r="AT18" s="23">
+        <v>7080.5</v>
+      </c>
+      <c r="AU18" s="23">
+        <v>7038</v>
+      </c>
+      <c r="AV18" s="23">
+        <v>6995.5</v>
+      </c>
+      <c r="AW18" s="23">
+        <v>6953</v>
+      </c>
+      <c r="AX18" s="23">
+        <v>6910.5</v>
+      </c>
+      <c r="AY18" s="23">
+        <v>6868</v>
+      </c>
+      <c r="AZ18" s="23">
+        <v>6825.5</v>
+      </c>
+      <c r="BA18" s="23">
+        <v>6783</v>
+      </c>
+      <c r="BB18" s="23">
+        <v>6740.5</v>
+      </c>
+      <c r="BC18" s="23">
+        <v>6698</v>
+      </c>
+      <c r="BD18" s="23">
+        <v>6655.5</v>
+      </c>
+      <c r="BE18" s="23">
+        <v>6613</v>
+      </c>
+      <c r="BF18" s="23">
+        <v>6570.5</v>
+      </c>
+      <c r="BG18" s="23">
+        <v>6528</v>
+      </c>
+      <c r="BH18" s="23">
+        <v>6485.5</v>
+      </c>
+      <c r="BI18" s="23">
+        <v>6443</v>
+      </c>
+      <c r="BJ18" s="23">
+        <v>6400.5</v>
+      </c>
+      <c r="BK18" s="23">
+        <v>6358</v>
+      </c>
+      <c r="BL18" s="23">
+        <v>6315.5</v>
+      </c>
+      <c r="BM18" s="23">
+        <v>6273</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>47</v>
@@ -4008,138 +5017,196 @@
       <c r="D19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13">
-        <v>0</v>
-      </c>
-      <c r="M19" s="13">
-        <v>0</v>
-      </c>
-      <c r="N19" s="13">
-        <v>0</v>
-      </c>
-      <c r="O19" s="13">
-        <v>0</v>
-      </c>
-      <c r="P19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>0</v>
-      </c>
-      <c r="R19" s="13">
-        <v>0</v>
-      </c>
-      <c r="S19" s="13">
-        <v>0</v>
-      </c>
-      <c r="T19" s="13">
-        <v>0</v>
-      </c>
-      <c r="U19" s="13">
-        <v>0</v>
-      </c>
-      <c r="V19" s="13">
-        <v>0</v>
-      </c>
-      <c r="W19" s="13">
-        <v>0</v>
-      </c>
-      <c r="X19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="12"/>
-      <c r="AU19" s="12"/>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0</v>
+      </c>
+      <c r="T19" s="12">
+        <v>0</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0</v>
+      </c>
+      <c r="V19" s="12">
+        <v>0</v>
+      </c>
+      <c r="W19" s="12">
+        <v>0</v>
+      </c>
+      <c r="X19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="24">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>44</v>
@@ -4147,138 +5214,196 @@
       <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="16">
         <v>1353700.9093778126</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="16">
         <v>1337862.1779254696</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="16">
         <v>1301340.0782407227</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="16">
         <v>1306726.7188271484</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="16">
         <v>1312113.3594135742</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="16">
         <v>1317500</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="X20" s="20">
+      <c r="X20" s="16">
         <v>1317500</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="16">
         <v>1317500</v>
       </c>
-      <c r="Z20" s="20">
+      <c r="Z20" s="16">
         <v>1317500</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA20" s="16">
         <v>1317500</v>
       </c>
-      <c r="AB20" s="20">
+      <c r="AB20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="AC20" s="20">
+      <c r="AC20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AD20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="AE20" s="20">
+      <c r="AE20" s="16">
         <v>1317500</v>
       </c>
-      <c r="AF20" s="20">
+      <c r="AF20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="AG20" s="20">
+      <c r="AG20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="AH20" s="20">
+      <c r="AH20" s="16">
         <v>1317499.9999999995</v>
       </c>
-      <c r="AI20" s="20">
+      <c r="AI20" s="16">
         <v>1317499.9999999995</v>
       </c>
-      <c r="AJ20" s="20">
+      <c r="AJ20" s="16">
         <v>1317499.9999999995</v>
       </c>
-      <c r="AK20" s="20">
+      <c r="AK20" s="16">
         <v>1317499.9999999995</v>
       </c>
-      <c r="AL20" s="20">
+      <c r="AL20" s="16">
         <v>1317499.9999999995</v>
       </c>
-      <c r="AM20" s="20">
+      <c r="AM20" s="16">
         <v>1317499.9999999995</v>
       </c>
-      <c r="AN20" s="20">
+      <c r="AN20" s="16">
         <v>1317499.9999999995</v>
       </c>
-      <c r="AO20" s="20">
+      <c r="AO20" s="16">
         <v>1317499.9999999995</v>
       </c>
-      <c r="AP20" s="20">
+      <c r="AP20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="AQ20" s="20">
+      <c r="AQ20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="AR20" s="20">
+      <c r="AR20" s="16">
         <v>1317499.9999999998</v>
       </c>
-      <c r="AS20" s="20">
+      <c r="AS20" s="16">
         <v>1317500</v>
       </c>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="14"/>
+      <c r="AT20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="AU20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="AV20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="AW20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="AX20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="AY20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="AZ20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BA20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BB20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BC20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BD20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BE20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BF20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BG20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BH20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BI20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BJ20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BK20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BL20" s="22">
+        <v>1317500</v>
+      </c>
+      <c r="BM20" s="22">
+        <v>1317500</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>46</v>
@@ -4409,13 +5534,73 @@
       <c r="AS21" s="11">
         <v>41650</v>
       </c>
+      <c r="AT21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="AU21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="AV21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="AW21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="AX21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="AY21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="AZ21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BA21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BB21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BC21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BD21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BE21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BF21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BG21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BH21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BI21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BJ21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BK21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BL21" s="23">
+        <v>41650</v>
+      </c>
+      <c r="BM21" s="23">
+        <v>41650</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>47</v>
@@ -4423,136 +5608,196 @@
       <c r="D22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="12">
         <v>1.0916942817563005</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="12">
         <v>1.0789211112302173</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="12">
         <v>1.0494678050328408</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="12">
         <v>1.0538118700218939</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="12">
         <v>1.0581559350109468</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="12">
         <v>1.0625</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X22" s="12">
         <v>1.0625</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="Y22" s="12">
         <v>1.0625</v>
       </c>
-      <c r="Z22" s="13">
+      <c r="Z22" s="12">
         <v>1.0625</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="12">
         <v>1.0625</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AB22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AC22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AD22" s="13">
+      <c r="AD22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="AE22" s="12">
         <v>1.0625</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="AF22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AG22" s="13">
+      <c r="AG22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AH22" s="13">
+      <c r="AH22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AI22" s="13">
+      <c r="AI22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AJ22" s="13">
+      <c r="AJ22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AK22" s="13">
+      <c r="AK22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AL22" s="13">
+      <c r="AL22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AM22" s="13">
+      <c r="AM22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AN22" s="13">
+      <c r="AN22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AO22" s="13">
+      <c r="AO22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AP22" s="13">
+      <c r="AP22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AQ22" s="13">
+      <c r="AQ22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AR22" s="13">
+      <c r="AR22" s="12">
         <v>1.0624999999999998</v>
       </c>
-      <c r="AS22" s="13">
+      <c r="AS22" s="12">
         <v>1.0625</v>
       </c>
+      <c r="AT22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="AU22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="AV22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="AW22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="AX22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="AY22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="AZ22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BA22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BB22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BC22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BD22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BE22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BF22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BG22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BH22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BI22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BJ22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BK22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BL22" s="24">
+        <v>1.0625</v>
+      </c>
+      <c r="BM22" s="24">
+        <v>1.0625</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>44</v>
@@ -4560,136 +5805,196 @@
       <c r="D23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="16">
         <v>535148.53691693849</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="16">
         <v>531980.00713934947</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="16">
         <v>520466.09476176166</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="16">
         <v>525641.36076692073</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="16">
         <v>530841.53251300007</v>
       </c>
-      <c r="T23" s="20">
+      <c r="T23" s="16">
         <v>536066.69499999995</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="V23" s="20">
+      <c r="V23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="W23" s="20">
+      <c r="W23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="X23" s="20">
+      <c r="X23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="Y23" s="20">
+      <c r="Y23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="Z23" s="20">
+      <c r="Z23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AA23" s="20">
+      <c r="AA23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AB23" s="20">
+      <c r="AB23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AC23" s="20">
+      <c r="AC23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AD23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AE23" s="20">
+      <c r="AE23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AF23" s="20">
+      <c r="AF23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AG23" s="20">
+      <c r="AG23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AH23" s="20">
+      <c r="AH23" s="16">
         <v>539112.49999999988</v>
       </c>
-      <c r="AI23" s="20">
+      <c r="AI23" s="16">
         <v>539112.49999999988</v>
       </c>
-      <c r="AJ23" s="20">
+      <c r="AJ23" s="16">
         <v>539112.49999999988</v>
       </c>
-      <c r="AK23" s="20">
+      <c r="AK23" s="16">
         <v>539112.49999999988</v>
       </c>
-      <c r="AL23" s="20">
+      <c r="AL23" s="16">
         <v>539112.49999999988</v>
       </c>
-      <c r="AM23" s="20">
+      <c r="AM23" s="16">
         <v>539112.49999999988</v>
       </c>
-      <c r="AN23" s="20">
+      <c r="AN23" s="16">
         <v>539112.49999999988</v>
       </c>
-      <c r="AO23" s="20">
+      <c r="AO23" s="16">
         <v>539112.49999999988</v>
       </c>
-      <c r="AP23" s="20">
+      <c r="AP23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AQ23" s="20">
+      <c r="AQ23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AR23" s="20">
+      <c r="AR23" s="16">
         <v>539112.5</v>
       </c>
-      <c r="AS23" s="20">
+      <c r="AS23" s="16">
         <v>539112.5</v>
       </c>
+      <c r="AT23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="AU23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="AV23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="AW23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="AX23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="AY23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="AZ23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BA23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BB23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BC23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BD23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BE23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BF23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BG23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BH23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BI23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BJ23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BK23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BL23" s="22">
+        <v>539112.5</v>
+      </c>
+      <c r="BM23" s="22">
+        <v>539112.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>46</v>
@@ -4820,13 +6125,73 @@
       <c r="AS24" s="11">
         <v>22949.999999999996</v>
       </c>
+      <c r="AT24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="AU24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="AV24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="AW24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="AX24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="AY24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="AZ24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BA24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BB24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BC24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BD24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BE24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BF24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BG24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BH24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BI24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BJ24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BK24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BL24" s="23">
+        <v>22950</v>
+      </c>
+      <c r="BM24" s="23">
+        <v>22950</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>47</v>
@@ -4834,136 +6199,196 @@
       <c r="D25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="12">
         <v>2.1397207922423491</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="12">
         <v>2.114685378011226</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="12">
         <v>2.0569568978643682</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="12">
         <v>2.0654712652429121</v>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="12">
         <v>2.0739856326214561</v>
       </c>
-      <c r="T25" s="13">
+      <c r="T25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="X25" s="13">
+      <c r="X25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="Y25" s="13">
+      <c r="Y25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="Z25" s="13">
+      <c r="Z25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AA25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AB25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AC25" s="13">
+      <c r="AC25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AD25" s="13">
+      <c r="AD25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AE25" s="13">
+      <c r="AE25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AF25" s="13">
+      <c r="AF25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AG25" s="13">
+      <c r="AG25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AH25" s="13">
+      <c r="AH25" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AI25" s="13">
+      <c r="AI25" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AJ25" s="13">
+      <c r="AJ25" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AK25" s="13">
+      <c r="AK25" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AL25" s="13">
+      <c r="AL25" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AM25" s="13">
+      <c r="AM25" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AN25" s="13">
+      <c r="AN25" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AO25" s="13">
+      <c r="AO25" s="12">
         <v>2.0824999999999996</v>
       </c>
-      <c r="AP25" s="13">
+      <c r="AP25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AQ25" s="13">
+      <c r="AQ25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AR25" s="13">
+      <c r="AR25" s="12">
         <v>2.0825</v>
       </c>
-      <c r="AS25" s="13">
+      <c r="AS25" s="12">
         <v>2.0825</v>
       </c>
+      <c r="AT25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AU25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AV25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AW25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AX25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AY25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="AZ25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BA25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BB25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BC25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BD25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BE25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BF25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BG25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BH25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BI25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BJ25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BK25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BL25" s="24">
+        <v>2.0825</v>
+      </c>
+      <c r="BM25" s="24">
+        <v>2.0825</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>44</v>
@@ -4971,136 +6396,196 @@
       <c r="D26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20">
-        <v>0</v>
-      </c>
-      <c r="J26" s="20">
-        <v>0</v>
-      </c>
-      <c r="K26" s="20">
-        <v>0</v>
-      </c>
-      <c r="L26" s="20">
-        <v>0</v>
-      </c>
-      <c r="M26" s="20">
-        <v>0</v>
-      </c>
-      <c r="N26" s="20">
-        <v>0</v>
-      </c>
-      <c r="O26" s="20">
-        <v>0</v>
-      </c>
-      <c r="P26" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="20">
-        <v>0</v>
-      </c>
-      <c r="R26" s="20">
-        <v>0</v>
-      </c>
-      <c r="S26" s="20">
-        <v>0</v>
-      </c>
-      <c r="T26" s="20">
-        <v>0</v>
-      </c>
-      <c r="U26" s="20">
-        <v>0</v>
-      </c>
-      <c r="V26" s="20">
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0</v>
+      </c>
+      <c r="O26" s="16">
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0</v>
+      </c>
+      <c r="T26" s="16">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
         <v>3396599.9999999995</v>
       </c>
-      <c r="W26" s="20">
+      <c r="W26" s="16">
         <v>3396599.9999999995</v>
       </c>
-      <c r="X26" s="20">
+      <c r="X26" s="16">
         <v>3396600</v>
       </c>
-      <c r="Y26" s="20">
+      <c r="Y26" s="16">
         <v>3396600</v>
       </c>
-      <c r="Z26" s="20">
+      <c r="Z26" s="16">
         <v>3374500</v>
       </c>
-      <c r="AA26" s="20">
+      <c r="AA26" s="16">
         <v>3353250</v>
       </c>
-      <c r="AB26" s="20">
+      <c r="AB26" s="16">
         <v>3331999.9999999995</v>
       </c>
-      <c r="AC26" s="20">
+      <c r="AC26" s="16">
         <v>3311599.9999999995</v>
       </c>
-      <c r="AD26" s="20">
+      <c r="AD26" s="16">
         <v>3292049.9999999991</v>
       </c>
-      <c r="AE26" s="20">
+      <c r="AE26" s="16">
         <v>3272500</v>
       </c>
-      <c r="AF26" s="20">
+      <c r="AF26" s="16">
         <v>3253799.9999999991</v>
       </c>
-      <c r="AG26" s="20">
+      <c r="AG26" s="16">
         <v>3235099.9999999995</v>
       </c>
-      <c r="AH26" s="20">
+      <c r="AH26" s="16">
         <v>3217249.9999999991</v>
       </c>
-      <c r="AI26" s="20">
+      <c r="AI26" s="16">
         <v>3199399.9999999995</v>
       </c>
-      <c r="AJ26" s="20">
+      <c r="AJ26" s="16">
         <v>3182399.9999999991</v>
       </c>
-      <c r="AK26" s="20">
+      <c r="AK26" s="16">
         <v>3166249.9999999991</v>
       </c>
-      <c r="AL26" s="20">
+      <c r="AL26" s="16">
         <v>3149249.9999999991</v>
       </c>
-      <c r="AM26" s="20">
+      <c r="AM26" s="16">
         <v>3133949.9999999991</v>
       </c>
-      <c r="AN26" s="20">
+      <c r="AN26" s="16">
         <v>3117799.9999999995</v>
       </c>
-      <c r="AO26" s="20">
+      <c r="AO26" s="16">
         <v>3102499.9999999991</v>
       </c>
-      <c r="AP26" s="20">
+      <c r="AP26" s="16">
         <v>3088049.9999999995</v>
       </c>
-      <c r="AQ26" s="20">
+      <c r="AQ26" s="16">
         <v>3073599.9999999995</v>
       </c>
-      <c r="AR26" s="20">
+      <c r="AR26" s="16">
         <v>3059150</v>
       </c>
-      <c r="AS26" s="20">
+      <c r="AS26" s="16">
         <v>3044699.9999999995</v>
       </c>
+      <c r="AT26" s="22">
+        <v>3030250</v>
+      </c>
+      <c r="AU26" s="22">
+        <v>3015800</v>
+      </c>
+      <c r="AV26" s="22">
+        <v>3001350</v>
+      </c>
+      <c r="AW26" s="22">
+        <v>2986900</v>
+      </c>
+      <c r="AX26" s="22">
+        <v>2972450</v>
+      </c>
+      <c r="AY26" s="22">
+        <v>2958000</v>
+      </c>
+      <c r="AZ26" s="22">
+        <v>2943550</v>
+      </c>
+      <c r="BA26" s="22">
+        <v>2929100</v>
+      </c>
+      <c r="BB26" s="22">
+        <v>2914650</v>
+      </c>
+      <c r="BC26" s="22">
+        <v>2900200.0000000098</v>
+      </c>
+      <c r="BD26" s="22">
+        <v>2885750.0000000098</v>
+      </c>
+      <c r="BE26" s="22">
+        <v>2871300.0000000098</v>
+      </c>
+      <c r="BF26" s="22">
+        <v>2856850.0000000098</v>
+      </c>
+      <c r="BG26" s="22">
+        <v>2842400.0000000098</v>
+      </c>
+      <c r="BH26" s="22">
+        <v>2827950.0000000098</v>
+      </c>
+      <c r="BI26" s="22">
+        <v>2813500.0000000098</v>
+      </c>
+      <c r="BJ26" s="22">
+        <v>2799050.0000000098</v>
+      </c>
+      <c r="BK26" s="22">
+        <v>2784600.0000000098</v>
+      </c>
+      <c r="BL26" s="22">
+        <v>2770150.0000000098</v>
+      </c>
+      <c r="BM26" s="22">
+        <v>2755700.0000000098</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>46</v>
@@ -5231,13 +6716,73 @@
       <c r="AS27" s="11">
         <v>267750</v>
       </c>
+      <c r="AT27" s="23">
+        <v>266616.66666666698</v>
+      </c>
+      <c r="AU27" s="23">
+        <v>265341.66666666698</v>
+      </c>
+      <c r="AV27" s="23">
+        <v>264066.66666666698</v>
+      </c>
+      <c r="AW27" s="23">
+        <v>262791.66666666698</v>
+      </c>
+      <c r="AX27" s="23">
+        <v>261516.66666666701</v>
+      </c>
+      <c r="AY27" s="23">
+        <v>260241.66666666701</v>
+      </c>
+      <c r="AZ27" s="23">
+        <v>258966.66666666701</v>
+      </c>
+      <c r="BA27" s="23">
+        <v>257691.66666666701</v>
+      </c>
+      <c r="BB27" s="23">
+        <v>256416.66666666701</v>
+      </c>
+      <c r="BC27" s="23">
+        <v>255141.66666666701</v>
+      </c>
+      <c r="BD27" s="23">
+        <v>253866.66666666701</v>
+      </c>
+      <c r="BE27" s="23">
+        <v>252591.66666666701</v>
+      </c>
+      <c r="BF27" s="23">
+        <v>251316.66666666701</v>
+      </c>
+      <c r="BG27" s="23">
+        <v>250041.66666666701</v>
+      </c>
+      <c r="BH27" s="23">
+        <v>248766.66666666701</v>
+      </c>
+      <c r="BI27" s="23">
+        <v>247491.66666666701</v>
+      </c>
+      <c r="BJ27" s="23">
+        <v>246216.66666666701</v>
+      </c>
+      <c r="BK27" s="23">
+        <v>244941.66666666701</v>
+      </c>
+      <c r="BL27" s="23">
+        <v>243666.66666666701</v>
+      </c>
+      <c r="BM27" s="23">
+        <v>242391.66666666701</v>
+      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>47</v>
@@ -5245,136 +6790,196 @@
       <c r="D28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="12">
         <v>4.6287837546467143</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="12">
         <v>4.5746255116161212</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="12">
         <v>4.4497434933392448</v>
       </c>
-      <c r="R28" s="13">
+      <c r="R28" s="12">
         <v>4.4681623288928298</v>
       </c>
-      <c r="S28" s="13">
+      <c r="S28" s="12">
         <v>4.4865811644464149</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="12">
         <v>4.5049999999999999</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="X28" s="13">
+      <c r="X28" s="12">
         <v>4.5049999999999999</v>
       </c>
-      <c r="Y28" s="13">
+      <c r="Y28" s="12">
         <v>4.5049999999999999</v>
       </c>
-      <c r="Z28" s="13">
+      <c r="Z28" s="12">
         <v>4.5049999999999999</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="12">
         <v>4.5049999999999999</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AB28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AC28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AD28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="AE28" s="13">
+      <c r="AE28" s="12">
         <v>4.5049999999999999</v>
       </c>
-      <c r="AF28" s="13">
+      <c r="AF28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="AG28" s="13">
+      <c r="AG28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="AH28" s="13">
+      <c r="AH28" s="12">
         <v>4.5049999999999981</v>
       </c>
-      <c r="AI28" s="13">
+      <c r="AI28" s="12">
         <v>4.5049999999999981</v>
       </c>
-      <c r="AJ28" s="13">
+      <c r="AJ28" s="12">
         <v>4.5049999999999981</v>
       </c>
-      <c r="AK28" s="13">
+      <c r="AK28" s="12">
         <v>4.5049999999999981</v>
       </c>
-      <c r="AL28" s="13">
+      <c r="AL28" s="12">
         <v>4.5049999999999981</v>
       </c>
-      <c r="AM28" s="13">
+      <c r="AM28" s="12">
         <v>4.5049999999999981</v>
       </c>
-      <c r="AN28" s="13">
+      <c r="AN28" s="12">
         <v>4.5049999999999981</v>
       </c>
-      <c r="AO28" s="13">
+      <c r="AO28" s="12">
         <v>4.5049999999999981</v>
       </c>
-      <c r="AP28" s="13">
+      <c r="AP28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="AQ28" s="13">
+      <c r="AQ28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="AR28" s="13">
+      <c r="AR28" s="12">
         <v>4.504999999999999</v>
       </c>
-      <c r="AS28" s="13">
+      <c r="AS28" s="12">
         <v>4.5049999999999999</v>
       </c>
+      <c r="AT28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="AU28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="AV28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="AW28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="AX28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="AY28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="AZ28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BA28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BB28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BC28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BD28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BE28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BF28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BG28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BH28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BI28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BJ28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BK28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BL28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="BM28" s="24">
+        <v>4.5049999999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>44</v>
@@ -5382,136 +6987,196 @@
       <c r="D29" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="N29" s="20">
+      <c r="N29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="16">
         <v>1150038.0055053218</v>
       </c>
-      <c r="P29" s="20">
+      <c r="P29" s="16">
         <v>1147662.5566241317</v>
       </c>
-      <c r="Q29" s="20">
+      <c r="Q29" s="16">
         <v>1122030.2017989275</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="16">
         <v>1132395.722070663</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S29" s="16">
         <v>1142808.4098118227</v>
       </c>
-      <c r="T29" s="20">
+      <c r="T29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="U29" s="20">
+      <c r="U29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="V29" s="20">
+      <c r="V29" s="16">
         <v>1147499.9999999995</v>
       </c>
-      <c r="W29" s="20">
+      <c r="W29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="X29" s="20">
+      <c r="X29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="Y29" s="20">
+      <c r="Y29" s="16">
         <v>1147500.0000000002</v>
       </c>
-      <c r="Z29" s="20">
+      <c r="Z29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="AA29" s="20">
+      <c r="AA29" s="16">
         <v>1147500</v>
       </c>
-      <c r="AB29" s="20">
+      <c r="AB29" s="16">
         <v>1147500</v>
       </c>
-      <c r="AC29" s="20">
+      <c r="AC29" s="16">
         <v>1147500</v>
       </c>
-      <c r="AD29" s="20">
+      <c r="AD29" s="16">
         <v>1147500.0000000002</v>
       </c>
-      <c r="AE29" s="20">
+      <c r="AE29" s="16">
         <v>1147500</v>
       </c>
-      <c r="AF29" s="20">
+      <c r="AF29" s="16">
         <v>1147500</v>
       </c>
-      <c r="AG29" s="20">
+      <c r="AG29" s="16">
         <v>1147500</v>
       </c>
-      <c r="AH29" s="20">
+      <c r="AH29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="AI29" s="20">
+      <c r="AI29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="AJ29" s="20">
+      <c r="AJ29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="AK29" s="20">
+      <c r="AK29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="AL29" s="20">
+      <c r="AL29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="AM29" s="20">
+      <c r="AM29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="AN29" s="20">
+      <c r="AN29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="AO29" s="20">
+      <c r="AO29" s="16">
         <v>1147499.9999999998</v>
       </c>
-      <c r="AP29" s="20">
+      <c r="AP29" s="16">
         <v>1147500</v>
       </c>
-      <c r="AQ29" s="20">
+      <c r="AQ29" s="16">
         <v>1147500</v>
       </c>
-      <c r="AR29" s="20">
+      <c r="AR29" s="16">
         <v>1147500</v>
       </c>
-      <c r="AS29" s="20">
+      <c r="AS29" s="16">
         <v>1147500.0000000002</v>
       </c>
+      <c r="AT29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="AU29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="AV29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="AW29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="AX29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="AY29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="AZ29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BA29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BB29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BC29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BD29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BE29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BF29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BG29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BH29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BI29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BJ29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BK29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BL29" s="22">
+        <v>1147500</v>
+      </c>
+      <c r="BM29" s="22">
+        <v>1147500</v>
+      </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -5642,13 +7307,73 @@
       <c r="AS30" s="11">
         <v>15300.000000000004</v>
       </c>
+      <c r="AT30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="AU30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="AV30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="AW30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="AX30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="AY30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="AZ30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BA30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BB30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BC30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BD30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BE30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BF30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BG30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BH30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BI30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BJ30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BK30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BL30" s="23">
+        <v>15300</v>
+      </c>
+      <c r="BM30" s="23">
+        <v>15300</v>
+      </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>47</v>
@@ -5656,136 +7381,196 @@
       <c r="D31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="13">
-        <v>0</v>
-      </c>
-      <c r="K31" s="13">
-        <v>0</v>
-      </c>
-      <c r="L31" s="13">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13">
-        <v>0</v>
-      </c>
-      <c r="N31" s="13">
-        <v>0</v>
-      </c>
-      <c r="O31" s="13">
-        <v>0</v>
-      </c>
-      <c r="P31" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>0</v>
-      </c>
-      <c r="R31" s="13">
-        <v>0</v>
-      </c>
-      <c r="S31" s="13">
-        <v>0</v>
-      </c>
-      <c r="T31" s="13">
-        <v>0</v>
-      </c>
-      <c r="U31" s="13">
-        <v>0</v>
-      </c>
-      <c r="V31" s="13">
-        <v>0</v>
-      </c>
-      <c r="W31" s="13">
-        <v>0</v>
-      </c>
-      <c r="X31" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="13">
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>0</v>
+      </c>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <v>0</v>
+      </c>
+      <c r="U31" s="12">
+        <v>0</v>
+      </c>
+      <c r="V31" s="12">
+        <v>0</v>
+      </c>
+      <c r="W31" s="12">
+        <v>0</v>
+      </c>
+      <c r="X31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="24">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>44</v>
@@ -5793,136 +7578,196 @@
       <c r="D32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="16">
         <v>4803454.8397277221</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P32" s="16">
         <v>4747252.8894129563</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q32" s="16">
         <v>4617658.3421444986</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="16">
         <v>4636772.2280963333</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S32" s="16">
         <v>4655886.1140481671</v>
       </c>
-      <c r="T32" s="20">
+      <c r="T32" s="16">
         <v>4675000</v>
       </c>
-      <c r="U32" s="20">
+      <c r="U32" s="16">
         <v>4628249.9999999991</v>
       </c>
-      <c r="V32" s="20">
+      <c r="V32" s="16">
         <v>4581967.4999999991</v>
       </c>
-      <c r="W32" s="20">
+      <c r="W32" s="16">
         <v>4536148.2499999991</v>
       </c>
-      <c r="X32" s="20">
+      <c r="X32" s="16">
         <v>4490786.3</v>
       </c>
-      <c r="Y32" s="20">
+      <c r="Y32" s="16">
         <v>4445878.25</v>
       </c>
-      <c r="Z32" s="20">
+      <c r="Z32" s="16">
         <v>4401419.8499999987</v>
       </c>
-      <c r="AA32" s="20">
+      <c r="AA32" s="16">
         <v>4357405.1500000004</v>
       </c>
-      <c r="AB32" s="20">
+      <c r="AB32" s="16">
         <v>4313831.5999999987</v>
       </c>
-      <c r="AC32" s="20">
+      <c r="AC32" s="16">
         <v>4270693.2499999991</v>
       </c>
-      <c r="AD32" s="20">
+      <c r="AD32" s="16">
         <v>4227986.7</v>
       </c>
-      <c r="AE32" s="20">
+      <c r="AE32" s="16">
         <v>4185705.9999999986</v>
       </c>
-      <c r="AF32" s="20">
+      <c r="AF32" s="16">
         <v>4143849.4499999993</v>
       </c>
-      <c r="AG32" s="20">
+      <c r="AG32" s="16">
         <v>4102411.0999999996</v>
       </c>
-      <c r="AH32" s="20">
+      <c r="AH32" s="16">
         <v>4061386.6999999988</v>
       </c>
-      <c r="AI32" s="20">
+      <c r="AI32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AJ32" s="20">
+      <c r="AJ32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AK32" s="20">
+      <c r="AK32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AL32" s="20">
+      <c r="AL32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AM32" s="20">
+      <c r="AM32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AN32" s="20">
+      <c r="AN32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AO32" s="20">
+      <c r="AO32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AP32" s="20">
+      <c r="AP32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AQ32" s="20">
+      <c r="AQ32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AR32" s="20">
+      <c r="AR32" s="16">
         <v>4020772.8499999992</v>
       </c>
-      <c r="AS32" s="20">
+      <c r="AS32" s="16">
         <v>4020772.85</v>
       </c>
+      <c r="AT32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="AU32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="AV32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="AW32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="AX32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="AY32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="AZ32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BA32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BB32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BC32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BD32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BE32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BF32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BG32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BH32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BI32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BJ32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BK32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BL32" s="22">
+        <v>4020772.85</v>
+      </c>
+      <c r="BM32" s="22">
+        <v>4020772.85</v>
+      </c>
     </row>
-    <row r="33" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>46</v>
@@ -6053,13 +7898,73 @@
       <c r="AS33" s="11">
         <v>80750</v>
       </c>
+      <c r="AT33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="AU33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="AV33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="AW33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="AX33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="AY33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="AZ33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BA33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BB33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BC33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BD33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BE33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BF33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BG33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BH33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BI33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BJ33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BK33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BL33" s="23">
+        <v>80750</v>
+      </c>
+      <c r="BM33" s="23">
+        <v>80750</v>
+      </c>
     </row>
-    <row r="34" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>47</v>
@@ -6067,136 +7972,196 @@
       <c r="D34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="12">
         <v>6.1134879778352831</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="12">
         <v>6.0419582228892166</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="12">
         <v>5.8770197081839086</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R34" s="12">
         <v>5.9013464721226061</v>
       </c>
-      <c r="S34" s="13">
+      <c r="S34" s="12">
         <v>5.9256732360613027</v>
       </c>
-      <c r="T34" s="13">
+      <c r="T34" s="12">
         <v>5.95</v>
       </c>
-      <c r="U34" s="13">
+      <c r="U34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X34" s="12">
         <v>5.95</v>
       </c>
-      <c r="Y34" s="13">
+      <c r="Y34" s="12">
         <v>5.95</v>
       </c>
-      <c r="Z34" s="13">
+      <c r="Z34" s="12">
         <v>5.95</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AA34" s="12">
         <v>5.95</v>
       </c>
-      <c r="AB34" s="13">
+      <c r="AB34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="AC34" s="13">
+      <c r="AC34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="AD34" s="13">
+      <c r="AD34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="AE34" s="13">
+      <c r="AE34" s="12">
         <v>5.95</v>
       </c>
-      <c r="AF34" s="13">
+      <c r="AF34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="AG34" s="13">
+      <c r="AG34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="AH34" s="13">
+      <c r="AH34" s="12">
         <v>5.9499999999999984</v>
       </c>
-      <c r="AI34" s="13">
+      <c r="AI34" s="12">
         <v>5.9499999999999984</v>
       </c>
-      <c r="AJ34" s="13">
+      <c r="AJ34" s="12">
         <v>5.9499999999999984</v>
       </c>
-      <c r="AK34" s="13">
+      <c r="AK34" s="12">
         <v>5.9499999999999984</v>
       </c>
-      <c r="AL34" s="13">
+      <c r="AL34" s="12">
         <v>5.9499999999999984</v>
       </c>
-      <c r="AM34" s="13">
+      <c r="AM34" s="12">
         <v>5.9499999999999984</v>
       </c>
-      <c r="AN34" s="13">
+      <c r="AN34" s="12">
         <v>5.9499999999999984</v>
       </c>
-      <c r="AO34" s="13">
+      <c r="AO34" s="12">
         <v>5.9499999999999984</v>
       </c>
-      <c r="AP34" s="13">
+      <c r="AP34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="AQ34" s="13">
+      <c r="AQ34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="AR34" s="13">
+      <c r="AR34" s="12">
         <v>5.9499999999999993</v>
       </c>
-      <c r="AS34" s="13">
+      <c r="AS34" s="12">
         <v>5.95</v>
       </c>
+      <c r="AT34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="AU34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="AV34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="AW34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="AX34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="AY34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="AZ34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BA34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BB34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BC34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BD34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BE34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BF34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BG34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BH34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BI34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BJ34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BK34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BL34" s="24">
+        <v>5.95</v>
+      </c>
+      <c r="BM34" s="24">
+        <v>5.95</v>
+      </c>
     </row>
-    <row r="35" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>44</v>
@@ -6204,166 +8169,196 @@
       <c r="D35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="20">
-        <v>0</v>
-      </c>
-      <c r="F35" s="20">
-        <v>0</v>
-      </c>
-      <c r="G35" s="20">
-        <v>0</v>
-      </c>
-      <c r="H35" s="20">
-        <v>0</v>
-      </c>
-      <c r="I35" s="20">
-        <v>0</v>
-      </c>
-      <c r="J35" s="20">
-        <v>0</v>
-      </c>
-      <c r="K35" s="20">
-        <v>0</v>
-      </c>
-      <c r="L35" s="20">
-        <v>0</v>
-      </c>
-      <c r="M35" s="20">
-        <v>0</v>
-      </c>
-      <c r="N35" s="20">
-        <v>0</v>
-      </c>
-      <c r="O35" s="20">
-        <v>0</v>
-      </c>
-      <c r="P35" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="20">
-        <v>0</v>
-      </c>
-      <c r="R35" s="20">
-        <v>0</v>
-      </c>
-      <c r="S35" s="20">
-        <v>0</v>
-      </c>
-      <c r="T35" s="20">
-        <v>0</v>
-      </c>
-      <c r="U35" s="20">
-        <v>0</v>
-      </c>
-      <c r="V35" s="20">
-        <v>0</v>
-      </c>
-      <c r="W35" s="20">
-        <v>0</v>
-      </c>
-      <c r="X35" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="20">
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <v>0</v>
+      </c>
+      <c r="O35" s="16">
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>0</v>
+      </c>
+      <c r="R35" s="16">
+        <v>0</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0</v>
+      </c>
+      <c r="T35" s="16">
+        <v>0</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0</v>
+      </c>
+      <c r="V35" s="16">
+        <v>0</v>
+      </c>
+      <c r="W35" s="16">
+        <v>0</v>
+      </c>
+      <c r="X35" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="16">
         <v>867000</v>
       </c>
-      <c r="Z35" s="20">
+      <c r="Z35" s="16">
         <v>864449.99999999988</v>
       </c>
-      <c r="AA35" s="20">
+      <c r="AA35" s="16">
         <v>862750</v>
       </c>
-      <c r="AB35" s="20">
+      <c r="AB35" s="16">
         <v>860199.99999999988</v>
       </c>
-      <c r="AC35" s="20">
+      <c r="AC35" s="16">
         <v>858499.99999999988</v>
       </c>
-      <c r="AD35" s="20">
+      <c r="AD35" s="16">
         <v>856799.99999999988</v>
       </c>
-      <c r="AE35" s="20">
+      <c r="AE35" s="16">
         <v>854250</v>
       </c>
-      <c r="AF35" s="20">
+      <c r="AF35" s="16">
         <v>852549.99999999977</v>
       </c>
-      <c r="AG35" s="20">
+      <c r="AG35" s="16">
         <v>850849.99999999988</v>
       </c>
-      <c r="AH35" s="20">
+      <c r="AH35" s="16">
         <v>849149.99999999977</v>
       </c>
-      <c r="AI35" s="20">
+      <c r="AI35" s="16">
         <v>846599.99999999977</v>
       </c>
-      <c r="AJ35" s="20">
+      <c r="AJ35" s="16">
         <v>844899.99999999977</v>
       </c>
-      <c r="AK35" s="20">
+      <c r="AK35" s="16">
         <v>843199.99999999977</v>
       </c>
-      <c r="AL35" s="20">
+      <c r="AL35" s="16">
         <v>841499.99999999977</v>
       </c>
-      <c r="AM35" s="20">
+      <c r="AM35" s="16">
         <v>839799.99999999977</v>
       </c>
-      <c r="AN35" s="20">
+      <c r="AN35" s="16">
         <v>838099.99999999988</v>
       </c>
-      <c r="AO35" s="20">
+      <c r="AO35" s="16">
         <v>836399.99999999965</v>
       </c>
-      <c r="AP35" s="20">
+      <c r="AP35" s="16">
         <v>834699.99999999977</v>
       </c>
-      <c r="AQ35" s="20">
+      <c r="AQ35" s="16">
         <v>832999.99999999988</v>
       </c>
-      <c r="AR35" s="20">
+      <c r="AR35" s="16">
         <v>831299.99999999977</v>
       </c>
-      <c r="AS35" s="20">
+      <c r="AS35" s="16">
         <v>829600</v>
       </c>
-      <c r="AT35" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="AU35" s="18">
-        <v>501.5</v>
-      </c>
-      <c r="AV35" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="AW35" s="18">
-        <v>501.5</v>
-      </c>
-      <c r="AX35" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="AY35" s="18">
-        <v>501.5</v>
-      </c>
-      <c r="AZ35" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="BA35" s="18">
-        <v>501.5</v>
-      </c>
-      <c r="BB35" s="19">
-        <v>501.5</v>
-      </c>
-      <c r="BC35" s="18">
-        <v>501.5</v>
+      <c r="AT35" s="22">
+        <v>827900</v>
+      </c>
+      <c r="AU35" s="22">
+        <v>826199.99999999895</v>
+      </c>
+      <c r="AV35" s="22">
+        <v>824499.99999999895</v>
+      </c>
+      <c r="AW35" s="22">
+        <v>822799.99999999895</v>
+      </c>
+      <c r="AX35" s="22">
+        <v>821099.99999999895</v>
+      </c>
+      <c r="AY35" s="22">
+        <v>819399.99999999895</v>
+      </c>
+      <c r="AZ35" s="22">
+        <v>817699.99999999895</v>
+      </c>
+      <c r="BA35" s="22">
+        <v>815999.99999999895</v>
+      </c>
+      <c r="BB35" s="22">
+        <v>814299.99999999895</v>
+      </c>
+      <c r="BC35" s="22">
+        <v>812599.99999999802</v>
+      </c>
+      <c r="BD35" s="22">
+        <v>810899.99999999802</v>
+      </c>
+      <c r="BE35" s="22">
+        <v>809199.99999999802</v>
+      </c>
+      <c r="BF35" s="22">
+        <v>807499.99999999802</v>
+      </c>
+      <c r="BG35" s="22">
+        <v>805799.99999999802</v>
+      </c>
+      <c r="BH35" s="22">
+        <v>804099.99999999802</v>
+      </c>
+      <c r="BI35" s="22">
+        <v>802399.99999999802</v>
+      </c>
+      <c r="BJ35" s="22">
+        <v>800699.99999999802</v>
+      </c>
+      <c r="BK35" s="22">
+        <v>798999.99999999802</v>
+      </c>
+      <c r="BL35" s="22">
+        <v>797299.99999999697</v>
+      </c>
+      <c r="BM35" s="22">
+        <v>795599.99999999697</v>
       </c>
     </row>
-    <row r="36" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>46</v>
@@ -6494,15 +8489,73 @@
       <c r="AS36" s="11">
         <v>67149.999999999985</v>
       </c>
-      <c r="AT36" s="12"/>
-      <c r="AU36" s="12"/>
+      <c r="AT36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="AU36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="AV36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="AW36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="AX36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="AY36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="AZ36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BA36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BB36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BC36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BD36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BE36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BF36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BG36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BH36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BI36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BJ36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BK36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BL36" s="23">
+        <v>67150</v>
+      </c>
+      <c r="BM36" s="23">
+        <v>67150</v>
+      </c>
     </row>
-    <row r="37" spans="1:55" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:65" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>47</v>
@@ -6510,131 +8563,189 @@
       <c r="D37" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="12">
         <v>3.3187506165391536</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="12">
         <v>3.2799201781398604</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="12">
         <v>3.1903821272998361</v>
       </c>
-      <c r="R37" s="13">
+      <c r="R37" s="12">
         <v>3.2035880848665572</v>
       </c>
-      <c r="S37" s="13">
+      <c r="S37" s="12">
         <v>3.2167940424332784</v>
       </c>
-      <c r="T37" s="13">
+      <c r="T37" s="12">
         <v>3.23</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="12">
         <v>3.23</v>
       </c>
-      <c r="Y37" s="13">
+      <c r="Y37" s="12">
         <v>3.23</v>
       </c>
-      <c r="Z37" s="13">
+      <c r="Z37" s="12">
         <v>3.23</v>
       </c>
-      <c r="AA37" s="13">
+      <c r="AA37" s="12">
         <v>3.23</v>
       </c>
-      <c r="AB37" s="13">
+      <c r="AB37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="AC37" s="13">
+      <c r="AC37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="AD37" s="13">
+      <c r="AD37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="AE37" s="13">
+      <c r="AE37" s="12">
         <v>3.23</v>
       </c>
-      <c r="AF37" s="13">
+      <c r="AF37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="AG37" s="13">
+      <c r="AG37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="AH37" s="13">
+      <c r="AH37" s="12">
         <v>3.2299999999999991</v>
       </c>
-      <c r="AI37" s="13">
+      <c r="AI37" s="12">
         <v>3.2299999999999991</v>
       </c>
-      <c r="AJ37" s="13">
+      <c r="AJ37" s="12">
         <v>3.2299999999999991</v>
       </c>
-      <c r="AK37" s="13">
+      <c r="AK37" s="12">
         <v>3.2299999999999991</v>
       </c>
-      <c r="AL37" s="13">
+      <c r="AL37" s="12">
         <v>3.2299999999999991</v>
       </c>
-      <c r="AM37" s="13">
+      <c r="AM37" s="12">
         <v>3.2299999999999991</v>
       </c>
-      <c r="AN37" s="13">
+      <c r="AN37" s="12">
         <v>3.2299999999999991</v>
       </c>
-      <c r="AO37" s="13">
+      <c r="AO37" s="12">
         <v>3.2299999999999991</v>
       </c>
-      <c r="AP37" s="13">
+      <c r="AP37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="AQ37" s="13">
+      <c r="AQ37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="AR37" s="13">
+      <c r="AR37" s="12">
         <v>3.2299999999999995</v>
       </c>
-      <c r="AS37" s="13">
+      <c r="AS37" s="12">
         <v>3.23</v>
       </c>
-      <c r="AT37" s="12"/>
-      <c r="AU37" s="12"/>
+      <c r="AT37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="AU37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="AV37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="AW37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="AX37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="AY37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="AZ37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BA37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BB37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BC37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BD37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BE37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BF37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BG37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BH37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BI37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BJ37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BK37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BL37" s="24">
+        <v>3.23</v>
+      </c>
+      <c r="BM37" s="24">
+        <v>3.23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
@@ -6645,11 +8756,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B9EF98-BE57-4B2E-A22F-A59E6D68BD28}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N20" sqref="N20"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6659,89 +8770,95 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>82</v>
       </c>
-      <c r="R1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" t="s">
         <v>94</v>
       </c>
-      <c r="U1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V1" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="8">
         <v>25</v>
@@ -6756,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="8">
         <v>0</v>
@@ -6777,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -6791,22 +8908,26 @@
       <c r="R2">
         <v>0.85</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="20">
+        <f>W2</f>
         <v>2000000</v>
       </c>
-      <c r="T2" s="23">
-        <v>350000</v>
+      <c r="T2" s="19">
+        <v>250000</v>
       </c>
       <c r="U2">
         <v>0.36499999999999999</v>
       </c>
+      <c r="W2" s="19">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="8">
         <v>25</v>
@@ -6821,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="8">
         <v>0</v>
@@ -6842,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -6856,22 +8977,26 @@
       <c r="R3">
         <v>0.92</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="20">
+        <f t="shared" ref="S3:S13" si="0">W3</f>
         <v>1000000</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="19">
         <v>500000</v>
       </c>
       <c r="U3">
         <v>0.46</v>
       </c>
+      <c r="W3" s="19">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="8">
         <v>25</v>
@@ -6886,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
@@ -6921,22 +9046,26 @@
       <c r="R4">
         <v>0.88</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="20">
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="19">
         <v>100000</v>
       </c>
       <c r="U4">
         <v>0.90700000000000003</v>
       </c>
+      <c r="W4" s="19">
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8">
         <v>60</v>
@@ -6951,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
@@ -6972,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -6986,22 +9115,26 @@
       <c r="R5">
         <v>0.81</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="20">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="19">
         <v>1000000</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
+      <c r="W5" s="19">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="8">
         <v>22</v>
@@ -7037,7 +9170,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -7051,25 +9184,29 @@
       <c r="R6">
         <v>0.24</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="20">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="T6" s="23">
-        <v>56000</v>
+      <c r="T6" s="19">
+        <v>50000</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6" s="22" t="s">
-        <v>86</v>
+      <c r="V6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="19">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="8">
         <v>24</v>
@@ -7105,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -7119,25 +9256,29 @@
       <c r="R7">
         <v>0.17</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="20">
+        <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="T7" s="23">
-        <v>30600</v>
+      <c r="T7" s="19">
+        <v>30000</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7" s="21" t="s">
-        <v>87</v>
+      <c r="V7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="W7" s="19">
+        <v>550000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="8">
         <v>25</v>
@@ -7173,7 +9314,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -7185,27 +9326,31 @@
         <v>0.11</v>
       </c>
       <c r="R8">
-        <v>0.12</v>
-      </c>
-      <c r="S8" s="23">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="19">
         <v>100000</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8" s="21" t="s">
-        <v>88</v>
+      <c r="V8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="19">
+        <v>1500000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="8">
         <v>41</v>
@@ -7241,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -7255,25 +9400,29 @@
       <c r="R9">
         <v>0.84</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="20">
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="19">
         <v>10000</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9" s="21" t="s">
-        <v>89</v>
+      <c r="V9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="19">
+        <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="8">
         <v>25</v>
@@ -7288,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -7309,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -7323,22 +9472,26 @@
       <c r="R10">
         <v>0.88</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="20">
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="19">
         <v>14000</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
+      <c r="W10" s="19">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="8">
         <v>25</v>
@@ -7353,7 +9506,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -7374,7 +9527,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -7388,22 +9541,26 @@
       <c r="R11">
         <v>0.88</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="20">
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="19">
         <v>500000</v>
       </c>
       <c r="U11">
         <v>-0.29499999999999998</v>
       </c>
+      <c r="W11" s="19">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="8">
         <v>25</v>
@@ -7418,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -7453,36 +9610,42 @@
       <c r="R12">
         <v>0.85</v>
       </c>
-      <c r="S12">
-        <v>1.5</v>
-      </c>
-      <c r="T12" s="8">
-        <v>7.4999999999999997E-2</v>
+      <c r="S12" s="20">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="T12" s="19">
+        <v>500000</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
+      <c r="W12" s="19">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="8">
         <f>C2</f>
         <v>25</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" ref="D13" si="0">D2</f>
+        <f t="shared" ref="D13" si="1">D2</f>
         <v>0</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -7490,13 +9653,16 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -7516,7 +9682,7 @@
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7539,7 +9705,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>52</v>
@@ -7575,7 +9741,7 @@
         <v>61</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -8682,6 +10848,209 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52ABB9E-A1E6-4127-ACC3-2FC0B2092A04}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -8750,7 +11119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -8780,7 +11149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>

--- a/technology_technical_economic_parameters.xlsx
+++ b/technology_technical_economic_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/caneta_cardiff_ac_uk/Documents/04 - Projects/18 - ABM/01 - Code/ABM code - Dec 2021/Code_WH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="916" documentId="11_EC9B91DDB8EEBBF87EB0692D678B75A84151B5BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEECC79-1A5F-4D7A-9F5C-9DBF93D3E6F4}"/>
+  <xr:revisionPtr revIDLastSave="957" documentId="11_EC9B91DDB8EEBBF87EB0692D678B75A84151B5BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC06E29-C201-4FD6-87BE-2605A53D08C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="464" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="464" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic_parameters" sheetId="10" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <author>tc={AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="99">
   <si>
     <t>Scale</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>Capacity_Market_eligible</t>
+  </si>
+  <si>
+    <t>Expected_Market_Ready_Time</t>
+  </si>
+  <si>
+    <t>Li-Battery</t>
+  </si>
+  <si>
+    <t>Storage_Flag</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1421,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N1" dT="2022-01-12T12:32:53.44" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
+  <threadedComment ref="O1" dT="2022-01-12T12:32:53.44" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
     <text>(used as a key to get the wholesale price of the fuel for each technology)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1428,7 +1437,7 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="F43" sqref="F43"/>
+      <selection pane="topRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1459,7 @@
     <col min="24" max="24" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="97.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="44" width="10" bestFit="1" customWidth="1"/>
@@ -5806,52 +5815,52 @@
         <v>45</v>
       </c>
       <c r="E23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="F23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="G23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="H23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="I23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="J23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="K23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="L23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="M23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="N23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="O23" s="16">
-        <v>535148.53691693849</v>
+        <v>539112.5</v>
       </c>
       <c r="P23" s="16">
-        <v>531980.00713934947</v>
+        <v>539112.5</v>
       </c>
       <c r="Q23" s="16">
-        <v>520466.09476176166</v>
+        <v>539112.5</v>
       </c>
       <c r="R23" s="16">
-        <v>525641.36076692073</v>
+        <v>539112.5</v>
       </c>
       <c r="S23" s="16">
-        <v>530841.53251300007</v>
+        <v>539112.5</v>
       </c>
       <c r="T23" s="16">
-        <v>536066.69499999995</v>
+        <v>539112.5</v>
       </c>
       <c r="U23" s="16">
         <v>539112.5</v>
@@ -6397,55 +6406,55 @@
         <v>45</v>
       </c>
       <c r="E26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="F26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="H26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="I26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="J26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="K26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="L26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="M26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="N26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="O26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="P26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="Q26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="R26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="S26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="T26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="U26" s="16">
-        <v>0</v>
+        <v>3396599.9999999995</v>
       </c>
       <c r="V26" s="16">
         <v>3396599.9999999995</v>
@@ -8756,33 +8765,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B9EF98-BE57-4B2E-A22F-A59E6D68BD28}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="36.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="36.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.140625" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
@@ -8793,67 +8802,73 @@
         <v>77</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>84</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>81</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>80</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>83</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>94</v>
       </c>
+      <c r="Y1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
@@ -8873,56 +8888,62 @@
         <v>0</v>
       </c>
       <c r="G2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="8">
         <v>0</v>
       </c>
       <c r="J2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
         <v>5</v>
       </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>74</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.85</v>
       </c>
-      <c r="S2" s="20">
-        <f>W2</f>
+      <c r="T2" s="20">
+        <f>X2</f>
         <v>2000000</v>
       </c>
-      <c r="T2" s="19">
+      <c r="U2" s="19">
         <v>250000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.36499999999999999</v>
       </c>
-      <c r="W2" s="19">
+      <c r="X2" s="19">
         <v>2000000</v>
       </c>
+      <c r="Y2">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -8942,56 +8963,62 @@
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
       </c>
       <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
         <v>3</v>
       </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
       <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
         <v>6</v>
       </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
         <v>0.19</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.92</v>
       </c>
-      <c r="S3" s="20">
-        <f t="shared" ref="S3:S13" si="0">W3</f>
+      <c r="T3" s="20">
+        <f t="shared" ref="T3:T13" si="0">X3</f>
         <v>1000000</v>
       </c>
-      <c r="T3" s="19">
+      <c r="U3" s="19">
         <v>500000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.46</v>
       </c>
-      <c r="W3" s="19">
+      <c r="X3" s="19">
         <v>1000000</v>
       </c>
+      <c r="Y3" s="8">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
@@ -9011,10 +9038,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
@@ -9026,41 +9053,47 @@
         <v>0</v>
       </c>
       <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
         <v>7</v>
       </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>54</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
       </c>
       <c r="P4">
         <v>6</v>
       </c>
       <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
         <v>0.17</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.88</v>
       </c>
-      <c r="S4" s="20">
+      <c r="T4" s="20">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="T4" s="19">
+      <c r="U4" s="19">
         <v>100000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.90700000000000003</v>
       </c>
-      <c r="W4" s="19">
+      <c r="X4" s="19">
         <v>2000000</v>
       </c>
+      <c r="Y4" s="8">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -9077,59 +9110,65 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
       </c>
       <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
         <v>2</v>
       </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
       <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
         <v>2</v>
       </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>8</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.77400000000000002</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.81</v>
       </c>
-      <c r="S5" s="20">
+      <c r="T5" s="20">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="T5" s="19">
+      <c r="U5" s="19">
         <v>1000000</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
         <v>1000000</v>
       </c>
+      <c r="Y5" s="8">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
@@ -9140,7 +9179,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -9149,59 +9188,65 @@
         <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
         <v>8700</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>1341.2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>5</v>
       </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
       <c r="L6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
         <v>75</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.48</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.24</v>
       </c>
-      <c r="S6" s="20">
+      <c r="T6" s="20">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="T6" s="19">
+      <c r="U6" s="19">
         <v>50000</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="W6" s="19">
+      <c r="X6" s="19">
         <v>1000000</v>
       </c>
+      <c r="Y6" s="8">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
@@ -9212,68 +9257,74 @@
         <v>24</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
         <v>12100</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>5564</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>4</v>
       </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
       <c r="L7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="8">
-        <v>1</v>
-      </c>
-      <c r="N7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>4</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.32</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.17</v>
       </c>
-      <c r="S7" s="20">
+      <c r="T7" s="20">
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="T7" s="19">
+      <c r="U7" s="19">
         <v>30000</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="W7" s="19">
+      <c r="X7" s="19">
         <v>550000</v>
       </c>
+      <c r="Y7" s="8">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
@@ -9284,68 +9335,75 @@
         <v>25</v>
       </c>
       <c r="D8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
         <v>13000</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>111</v>
       </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
       <c r="K8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>0.11</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="20">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="T8" s="19">
-        <v>100000</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="17" t="s">
+      <c r="U8" s="19">
+        <f>(I8-J8)/8*1000/2</f>
+        <v>805562.5</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="19">
+      <c r="X8" s="19">
         <v>1500000</v>
       </c>
+      <c r="Y8" s="8">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
@@ -9356,16 +9414,16 @@
         <v>41</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -9374,50 +9432,56 @@
         <v>0</v>
       </c>
       <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
         <v>2</v>
       </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
       <c r="L9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
         <v>75</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
         <v>0.35</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.84</v>
       </c>
-      <c r="S9" s="20">
+      <c r="T9" s="20">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="T9" s="19">
+      <c r="U9" s="19">
         <v>10000</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="W9" s="19">
+      <c r="X9" s="19">
         <v>60000</v>
       </c>
+      <c r="Y9" s="8">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
@@ -9437,56 +9501,62 @@
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
       </c>
       <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
         <v>5</v>
       </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
       <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
         <v>3</v>
       </c>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.84</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.88</v>
       </c>
-      <c r="S10" s="20">
+      <c r="T10" s="20">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="T10" s="19">
+      <c r="U10" s="19">
         <v>14000</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="19">
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="19">
         <v>500000</v>
       </c>
+      <c r="Y10" s="8">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
@@ -9503,59 +9573,65 @@
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
       </c>
       <c r="H11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
       </c>
       <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
         <v>4</v>
       </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
       <c r="L11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8">
         <v>1</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.45</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.88</v>
       </c>
-      <c r="S11" s="20">
+      <c r="T11" s="20">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="T11" s="19">
+      <c r="U11" s="19">
         <v>500000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="W11" s="19">
+      <c r="X11" s="19">
         <v>500000</v>
       </c>
+      <c r="Y11" s="8">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
@@ -9572,59 +9648,65 @@
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
       </c>
       <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
         <v>6</v>
       </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
       <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
         <v>4</v>
       </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>3</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.45300000000000001</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.85</v>
       </c>
-      <c r="S12" s="20">
+      <c r="T12" s="20">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="T12" s="19">
+      <c r="U12" s="19">
         <v>500000</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="W12" s="19">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="19">
         <v>500000</v>
       </c>
+      <c r="Y12" s="8">
+        <v>2035</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>69</v>
       </c>
@@ -9636,40 +9718,54 @@
         <v>25</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" ref="D13" si="1">D2</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13" si="1">E2</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="S13" s="20">
+      <c r="T13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="H14" s="8"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10852,7 +10948,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10959,9 +11055,6 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -10970,9 +11063,6 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
         <v>1</v>
       </c>
@@ -11127,7 +11217,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/technology_technical_economic_parameters.xlsx
+++ b/technology_technical_economic_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/caneta_cardiff_ac_uk/Documents/04 - Projects/18 - ABM/01 - Code/ABM code - Dec 2021/Code_WH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1179" documentId="11_EC9B91DDB8EEBBF87EB0692D678B75A84151B5BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527BB89C-E6F6-4873-8493-BA8014E283EE}"/>
+  <xr:revisionPtr revIDLastSave="1219" documentId="11_EC9B91DDB8EEBBF87EB0692D678B75A84151B5BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776CDB95-ABE6-40CA-A350-FE439AE11FEA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="464" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="464" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic_parameters_2010_2020" sheetId="19" r:id="rId1"/>
@@ -92,9 +92,10 @@
     <author>tc={A68E3354-B639-4E4F-B598-40530E3842D3}</author>
     <author>tc={AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}</author>
     <author>tc={09275011-0514-4654-A0E9-B8C2B727E181}</author>
+    <author>tc={CD328448-BD63-41AF-BD4E-959C7660C688}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E9A7B4B9-FE17-481D-867E-5F83AD44378F}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{E9A7B4B9-FE17-481D-867E-5F83AD44378F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -102,7 +103,7 @@
     comparison of data between major producer and DUKES 5.7 data</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{A68E3354-B639-4E4F-B598-40530E3842D3}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{A68E3354-B639-4E4F-B598-40530E3842D3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -110,7 +111,7 @@
     from: https://www.gov.uk/government/publications/beis-electricity-generation-costs-2020</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="2" shapeId="0" xr:uid="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
+    <comment ref="Q1" authorId="2" shapeId="0" xr:uid="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,7 +119,7 @@
     (used as a key to get the wholesale price of the fuel for each technology)</t>
       </text>
     </comment>
-    <comment ref="L4" authorId="3" shapeId="0" xr:uid="{09275011-0514-4654-A0E9-B8C2B727E181}">
+    <comment ref="M4" authorId="3" shapeId="0" xr:uid="{09275011-0514-4654-A0E9-B8C2B727E181}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -126,12 +127,20 @@
     dukes: 5.10  Plant loads, demand and efficiency</t>
       </text>
     </comment>
+    <comment ref="E14" authorId="4" shapeId="0" xr:uid="{CD328448-BD63-41AF-BD4E-959C7660C688}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    2% per year of the capacity of the battery</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="104">
   <si>
     <t>Scale</t>
   </si>
@@ -444,6 +453,9 @@
   </si>
   <si>
     <t>Storage_duration_hour</t>
+  </si>
+  <si>
+    <t>Degradation_rate_perc</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1068,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1112,6 +1124,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="46" builtinId="30" customBuiltin="1"/>
@@ -1509,17 +1522,20 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K1" dT="2022-02-10T16:38:04.75" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{E9A7B4B9-FE17-481D-867E-5F83AD44378F}">
+  <threadedComment ref="L1" dT="2022-02-10T16:38:04.75" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{E9A7B4B9-FE17-481D-867E-5F83AD44378F}">
     <text>comparison of data between major producer and DUKES 5.7 data</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2022-02-11T14:14:02.85" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{A68E3354-B639-4E4F-B598-40530E3842D3}">
+  <threadedComment ref="M1" dT="2022-02-11T14:14:02.85" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{A68E3354-B639-4E4F-B598-40530E3842D3}">
     <text>from: https://www.gov.uk/government/publications/beis-electricity-generation-costs-2020</text>
   </threadedComment>
-  <threadedComment ref="P1" dT="2022-01-12T12:32:53.44" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
+  <threadedComment ref="Q1" dT="2022-01-12T12:32:53.44" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{AF8E16E6-1772-48C9-B6C8-8ED2AAF161CC}">
     <text>(used as a key to get the wholesale price of the fuel for each technology)</text>
   </threadedComment>
-  <threadedComment ref="L4" dT="2022-02-11T14:16:41.98" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{09275011-0514-4654-A0E9-B8C2B727E181}">
+  <threadedComment ref="M4" dT="2022-02-11T14:16:41.98" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{09275011-0514-4654-A0E9-B8C2B727E181}">
     <text>dukes: 5.10  Plant loads, demand and efficiency</text>
+  </threadedComment>
+  <threadedComment ref="E14" dT="2022-02-18T15:29:25.54" personId="{180F677F-290E-46C7-A175-9F51A1040FF7}" id="{CD328448-BD63-41AF-BD4E-959C7660C688}">
+    <text>2% per year of the capacity of the battery</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -15684,36 +15700,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B9EF98-BE57-4B2E-A22F-A59E6D68BD28}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="36.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.85546875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.140625" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="36.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" customWidth="1"/>
+    <col min="26" max="26" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
@@ -15727,76 +15743,79 @@
         <v>102</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>79</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>80</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>94</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
@@ -15806,9 +15825,6 @@
       <c r="C2" s="8">
         <v>25</v>
       </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
       <c r="F2" s="8">
         <v>0</v>
       </c>
@@ -15819,59 +15835,62 @@
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="26">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="26">
         <v>0.53</v>
       </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
       <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
         <v>2</v>
       </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>72</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.85</v>
       </c>
-      <c r="U2" s="19">
+      <c r="V2" s="19">
         <v>2000000</v>
       </c>
-      <c r="V2" s="19">
+      <c r="W2" s="19">
         <v>250000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.36499999999999999</v>
       </c>
-      <c r="Y2" s="19">
+      <c r="Z2" s="19">
         <v>2000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2010</v>
       </c>
-      <c r="AA2" s="19">
+      <c r="AB2" s="19">
         <v>250000</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -15881,9 +15900,6 @@
       <c r="C3" s="8">
         <v>25</v>
       </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
       <c r="F3" s="8">
         <v>0</v>
       </c>
@@ -15894,62 +15910,65 @@
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
         <f>6.63766*1000+7046.41</f>
         <v>13684.07</v>
       </c>
-      <c r="L3" s="26">
+      <c r="M3" s="26">
         <v>0.34</v>
       </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
       <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
         <v>4</v>
       </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
         <v>0.19</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.92</v>
       </c>
-      <c r="U3" s="19">
+      <c r="V3" s="19">
         <v>1000000</v>
       </c>
-      <c r="V3" s="19">
+      <c r="W3" s="19">
         <v>500000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.46</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Z3" s="19">
         <v>1000000</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AA3" s="8">
         <v>2010</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AB3" s="19">
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>54</v>
       </c>
@@ -15959,9 +15978,6 @@
       <c r="C4" s="8">
         <v>25</v>
       </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
@@ -15972,59 +15988,62 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="26">
         <v>0.35</v>
       </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
       <c r="N4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>54</v>
-      </c>
-      <c r="Q4">
-        <v>6</v>
       </c>
       <c r="R4">
         <v>6</v>
       </c>
       <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
         <v>0.17</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.88</v>
       </c>
-      <c r="U4" s="19">
+      <c r="V4" s="19">
         <v>1000000</v>
       </c>
-      <c r="V4" s="19">
+      <c r="W4" s="19">
         <v>100000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.90700000000000003</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Z4" s="19">
         <v>2000000</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AA4" s="8">
         <v>2010</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AB4" s="19">
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -16034,9 +16053,6 @@
       <c r="C5" s="8">
         <v>60</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
@@ -16044,62 +16060,65 @@
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
       </c>
       <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="26">
         <v>0.4</v>
       </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
       <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
         <v>2</v>
       </c>
-      <c r="O5" s="8">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
         <v>71</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>8</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>5</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.77400000000000002</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.81</v>
       </c>
-      <c r="U5" s="19">
+      <c r="V5" s="19">
         <v>2000000</v>
       </c>
-      <c r="V5" s="19">
+      <c r="W5" s="19">
         <v>1000000</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="19">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
         <v>1000000</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AA5" s="8">
         <v>2010</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AB5" s="19">
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
@@ -16109,11 +16128,8 @@
       <c r="C6" s="8">
         <v>22</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
       <c r="F6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -16122,61 +16138,64 @@
         <v>1</v>
       </c>
       <c r="I6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
         <v>8700</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>1341.2</v>
       </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
       <c r="N6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>73</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.48</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.24</v>
       </c>
-      <c r="U6" s="19">
+      <c r="V6" s="19">
         <v>1000000</v>
       </c>
-      <c r="V6" s="19">
+      <c r="W6" s="19">
         <v>50000</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="18" t="s">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Z6" s="19">
         <v>1000000</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AA6" s="8">
         <v>2010</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AB6" s="19">
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
@@ -16186,74 +16205,74 @@
       <c r="C7" s="8">
         <v>24</v>
       </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
       <c r="F7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>12100</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>5564</v>
       </c>
-      <c r="M7" s="8">
-        <v>1</v>
-      </c>
       <c r="N7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="8">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.32</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.17</v>
       </c>
-      <c r="U7" s="19">
+      <c r="V7" s="19">
         <v>1000000</v>
       </c>
-      <c r="V7" s="19">
+      <c r="W7" s="19">
         <v>30000</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Z7" s="19">
         <v>550000</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AA7" s="8">
         <v>2010</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AB7" s="19">
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
@@ -16263,76 +16282,76 @@
       <c r="C8" s="8">
         <v>25</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
       <c r="F8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
         <v>13000</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>111</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
       <c r="N8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <v>0.11</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="19">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
         <v>1000000</v>
       </c>
-      <c r="V8" s="19">
-        <f>(J8-K8)/8*1000/10</f>
+      <c r="W8" s="19">
+        <f>(K8-L8)/8*1000/10</f>
         <v>161112.5</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Z8" s="19">
         <v>1500000</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="AA8" s="8">
         <v>2010</v>
       </c>
-      <c r="AA8" s="19">
-        <f>(J8-K8)/8*1000/2</f>
+      <c r="AB8" s="19">
+        <f>(K8-L8)/8*1000/2</f>
         <v>805562.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
@@ -16342,73 +16361,73 @@
       <c r="C9" s="8">
         <v>41</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
       <c r="L9" s="25"/>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
+      <c r="M9" s="25"/>
       <c r="N9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>73</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
       </c>
       <c r="R9">
         <v>2</v>
       </c>
       <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
         <v>0.35</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.84</v>
       </c>
-      <c r="U9" s="19">
+      <c r="V9" s="19">
         <v>500000</v>
       </c>
-      <c r="V9" s="19">
+      <c r="W9" s="19">
         <v>10000</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Z9" s="19">
         <v>60000</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AA9" s="8">
         <v>2010</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AB9" s="19">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
@@ -16418,9 +16437,6 @@
       <c r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
@@ -16431,61 +16447,64 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
         <v>1767.68</v>
       </c>
-      <c r="L10" s="26">
+      <c r="M10" s="26">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
       <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
         <v>3</v>
       </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.84</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.88</v>
       </c>
-      <c r="U10" s="19">
+      <c r="V10" s="19">
         <v>2000000</v>
       </c>
-      <c r="V10" s="19">
+      <c r="W10" s="19">
         <v>14000</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="19">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="19">
         <v>500000</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AA10" s="8">
         <v>2010</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AB10" s="19">
         <v>14000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
@@ -16495,9 +16514,6 @@
       <c r="C11" s="8">
         <v>25</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
@@ -16505,63 +16521,66 @@
         <v>0</v>
       </c>
       <c r="H11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="26">
-        <f>L10</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="26">
+        <f>M10</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
       <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
         <v>5</v>
       </c>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.45</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.88</v>
       </c>
-      <c r="U11" s="19">
+      <c r="V11" s="19">
         <v>2000000</v>
       </c>
-      <c r="V11" s="19">
+      <c r="W11" s="19">
         <v>500000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="Z11" s="19">
         <v>500000</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="AA11" s="8">
         <v>2018</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="AB11" s="19">
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
@@ -16571,9 +16590,6 @@
       <c r="C12" s="8">
         <v>25</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
@@ -16581,63 +16597,66 @@
         <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
       </c>
       <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="26">
-        <f>L2</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="26">
+        <f>M2</f>
         <v>0.53</v>
       </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
       <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
         <v>6</v>
       </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>0.45300000000000001</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>0.85</v>
       </c>
-      <c r="U12" s="19">
+      <c r="V12" s="19">
         <v>2000000</v>
       </c>
-      <c r="V12" s="19">
+      <c r="W12" s="19">
         <v>500000</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="19">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="19">
         <v>500000</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AA12" s="8">
         <v>2035</v>
       </c>
-      <c r="AA12" s="19">
+      <c r="AB12" s="19">
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>67</v>
       </c>
@@ -16648,49 +16667,49 @@
         <f>C2</f>
         <v>25</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
       <c r="F13" s="8">
-        <f t="shared" ref="F13" si="0">F2</f>
         <v>0</v>
       </c>
       <c r="G13" s="8">
+        <f t="shared" ref="G13" si="0">G2</f>
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="26">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="26">
         <v>0.47</v>
       </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
       <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
         <v>7</v>
       </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="U13" s="19">
+      <c r="V13" s="19">
         <v>2000000</v>
       </c>
-      <c r="V13" s="19">
+      <c r="W13" s="19">
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -16698,16 +16717,16 @@
         <v>69</v>
       </c>
       <c r="C14" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="8">
-        <v>1</v>
+      <c r="E14" s="26">
+        <v>0.02</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
@@ -16721,12 +16740,12 @@
       <c r="J14" s="8">
         <v>0</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="26">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="26">
+        <v>1</v>
       </c>
       <c r="N14" s="8">
         <v>0</v>
@@ -16734,12 +16753,12 @@
       <c r="O14" s="8">
         <v>0</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
       <c r="R14">
         <v>1</v>
       </c>
@@ -16747,18 +16766,22 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>0.8</v>
-      </c>
-      <c r="U14" s="19">
+        <v>1</v>
+      </c>
+      <c r="U14" s="29">
+        <f>(1-E14)^C14</f>
+        <v>0.81707280688754658</v>
+      </c>
+      <c r="V14" s="19">
         <v>500000</v>
       </c>
-      <c r="V14" s="19">
+      <c r="W14" s="19">
         <v>50000</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <v>2018</v>
       </c>
     </row>
@@ -16773,8 +16796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898708BB-497B-47A9-8A42-DFB40CA3BBD6}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18695,21 +18718,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F5CD42354AAC441BBEBC0DB60FF2E5E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea4030731fbb82b60f08fc005274800f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77004af6-74ae-4ef6-bd6c-a07f36984bb1" xmlns:ns3="fc548c4c-0127-4895-9309-6e27078b8b5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14d4a3203feaba80961c8c11a30ae70b" ns2:_="" ns3:_="">
     <xsd:import namespace="77004af6-74ae-4ef6-bd6c-a07f36984bb1"/>
@@ -18914,24 +18922,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE276612-2441-44A6-B645-D8B674E952AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C816199B-3615-49AE-8787-402FADC64DE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2448F5-A512-4284-A3B0-EE93AC3A811B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18950,6 +18956,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C816199B-3615-49AE-8787-402FADC64DE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE276612-2441-44A6-B645-D8B674E952AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{bdb74b30-9568-4856-bdbf-06759778fcbc}" enabled="0" method="" siteId="{bdb74b30-9568-4856-bdbf-06759778fcbc}" removed="1"/>
